--- a/iClickerQuizPts/DLCiClickerQuizPoints_2016Summer.xlsx
+++ b/iClickerQuizPts/DLCiClickerQuizPoints_2016Summer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\OneDrive\Documents\Denise\Rutgers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bill\Documents\GitHub\iClickerQuizPts\iClickerQuizPts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4932,7 +4932,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -5500,13 +5500,13 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
@@ -5562,13 +5562,31 @@
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0_);\(0\)"/>
+      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -5595,24 +5613,6 @@
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" textRotation="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5627,29 +5627,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblClkrQuizGrades" displayName="tblClkrQuizGrades" ref="C9:G820" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblClkrQuizGrades" displayName="tblClkrQuizGrades" ref="C9:G820" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="C9:G820"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Student ID" dataDxfId="6"/>
-    <tableColumn id="2" name="Student Name" dataDxfId="5"/>
-    <tableColumn id="3" name="308 Spr16 TOTAL" dataDxfId="3">
+    <tableColumn id="1" name="Student ID" dataDxfId="9"/>
+    <tableColumn id="2" name="Student Name" dataDxfId="8"/>
+    <tableColumn id="3" name="308 Spr16 TOTAL" dataDxfId="7">
       <calculatedColumnFormula>SUM(F10:F10)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="11/23/16" dataDxfId="2"/>
-    <tableColumn id="5" name="11/21/16" dataDxfId="1"/>
+    <tableColumn id="4" name="11/23/16" dataDxfId="6"/>
+    <tableColumn id="5" name="11/21/16" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblDblDippers" displayName="tblDblDippers" ref="C5:J6" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblDblDippers" displayName="tblDblDippers" ref="C5:J6" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="C5:J6"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="StudentID" dataDxfId="8"/>
-    <tableColumn id="2" name="StudentName" dataDxfId="7"/>
+    <tableColumn id="1" name="StudentID" dataDxfId="3"/>
+    <tableColumn id="2" name="StudentName" dataDxfId="2"/>
     <tableColumn id="3" name="Course Week"/>
-    <tableColumn id="4" name="Session" dataDxfId="10"/>
+    <tableColumn id="4" name="Session" dataDxfId="1"/>
     <tableColumn id="5" name="Date"/>
     <tableColumn id="6" name="Ttl Possible Pts"/>
     <tableColumn id="7" name="Test Score"/>
@@ -5988,16 +5988,16 @@
       <selection activeCell="C5" sqref="C5"/>
       <selection pane="topRight" activeCell="F5" sqref="F5"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15.875" customWidth="1"/>
-    <col min="6" max="7" width="10.625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="7" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -6107,7 +6107,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="25">
-        <f>SUM(F10:F10)</f>
+        <f t="shared" ref="E10:E73" si="0">SUM(F10:F10)</f>
         <v>0</v>
       </c>
       <c r="F10" s="25"/>
@@ -6121,7 +6121,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="25">
-        <f>SUM(F11:F11)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F11" s="25">
@@ -6137,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="25">
-        <f>SUM(F12:F12)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F12" s="25">
@@ -6153,7 +6153,7 @@
         <v>9</v>
       </c>
       <c r="E13" s="25">
-        <f>SUM(F13:F13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13" s="25"/>
@@ -6167,7 +6167,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="25">
-        <f>SUM(F14:F14)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="25"/>
@@ -6181,7 +6181,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="25">
-        <f>SUM(F15:F15)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="25"/>
@@ -6195,7 +6195,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="25">
-        <f>SUM(F16:F16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="25"/>
@@ -6209,7 +6209,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="25">
-        <f>SUM(F17:F17)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="25"/>
@@ -6223,7 +6223,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="25">
-        <f>SUM(F18:F18)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="25"/>
@@ -6237,7 +6237,7 @@
         <v>21</v>
       </c>
       <c r="E19" s="25">
-        <f>SUM(F19:F19)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F19" s="25">
@@ -6253,7 +6253,7 @@
         <v>23</v>
       </c>
       <c r="E20" s="25">
-        <f>SUM(F20:F20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="25"/>
@@ -6267,7 +6267,7 @@
         <v>25</v>
       </c>
       <c r="E21" s="25">
-        <f>SUM(F21:F21)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="25"/>
@@ -6281,7 +6281,7 @@
         <v>27</v>
       </c>
       <c r="E22" s="25">
-        <f>SUM(F22:F22)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="25"/>
@@ -6295,7 +6295,7 @@
         <v>29</v>
       </c>
       <c r="E23" s="25">
-        <f>SUM(F23:F23)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="25"/>
@@ -6309,7 +6309,7 @@
         <v>31</v>
       </c>
       <c r="E24" s="25">
-        <f>SUM(F24:F24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F24" s="25">
@@ -6325,7 +6325,7 @@
         <v>33</v>
       </c>
       <c r="E25" s="25">
-        <f>SUM(F25:F25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="25"/>
@@ -6339,7 +6339,7 @@
         <v>35</v>
       </c>
       <c r="E26" s="25">
-        <f>SUM(F26:F26)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="25"/>
@@ -6353,7 +6353,7 @@
         <v>37</v>
       </c>
       <c r="E27" s="25">
-        <f>SUM(F27:F27)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="25"/>
@@ -6367,7 +6367,7 @@
         <v>39</v>
       </c>
       <c r="E28" s="25">
-        <f>SUM(F28:F28)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F28" s="25">
@@ -6383,7 +6383,7 @@
         <v>41</v>
       </c>
       <c r="E29" s="25">
-        <f>SUM(F29:F29)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="25"/>
@@ -6397,7 +6397,7 @@
         <v>43</v>
       </c>
       <c r="E30" s="25">
-        <f>SUM(F30:F30)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F30" s="25">
@@ -6413,7 +6413,7 @@
         <v>45</v>
       </c>
       <c r="E31" s="25">
-        <f>SUM(F31:F31)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F31" s="25">
@@ -6429,7 +6429,7 @@
         <v>47</v>
       </c>
       <c r="E32" s="25">
-        <f>SUM(F32:F32)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F32" s="25">
@@ -6445,7 +6445,7 @@
         <v>49</v>
       </c>
       <c r="E33" s="25">
-        <f>SUM(F33:F33)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F33" s="25">
@@ -6461,7 +6461,7 @@
         <v>51</v>
       </c>
       <c r="E34" s="25">
-        <f>SUM(F34:F34)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="25"/>
@@ -6475,7 +6475,7 @@
         <v>53</v>
       </c>
       <c r="E35" s="25">
-        <f>SUM(F35:F35)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F35" s="25">
@@ -6491,7 +6491,7 @@
         <v>55</v>
       </c>
       <c r="E36" s="25">
-        <f>SUM(F36:F36)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="25"/>
@@ -6505,7 +6505,7 @@
         <v>57</v>
       </c>
       <c r="E37" s="25">
-        <f>SUM(F37:F37)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="25"/>
@@ -6519,7 +6519,7 @@
         <v>59</v>
       </c>
       <c r="E38" s="25">
-        <f>SUM(F38:F38)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="25"/>
@@ -6533,7 +6533,7 @@
         <v>61</v>
       </c>
       <c r="E39" s="25">
-        <f>SUM(F39:F39)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="25"/>
@@ -6547,7 +6547,7 @@
         <v>63</v>
       </c>
       <c r="E40" s="25">
-        <f>SUM(F40:F40)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="25"/>
@@ -6561,7 +6561,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="25">
-        <f>SUM(F41:F41)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F41" s="25">
@@ -6577,7 +6577,7 @@
         <v>67</v>
       </c>
       <c r="E42" s="25">
-        <f>SUM(F42:F42)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="25"/>
@@ -6591,7 +6591,7 @@
         <v>69</v>
       </c>
       <c r="E43" s="25">
-        <f>SUM(F43:F43)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F43" s="25">
@@ -6607,7 +6607,7 @@
         <v>71</v>
       </c>
       <c r="E44" s="25">
-        <f>SUM(F44:F44)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F44" s="25"/>
@@ -6621,7 +6621,7 @@
         <v>73</v>
       </c>
       <c r="E45" s="25">
-        <f>SUM(F45:F45)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F45" s="25"/>
@@ -6635,7 +6635,7 @@
         <v>75</v>
       </c>
       <c r="E46" s="25">
-        <f>SUM(F46:F46)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F46" s="25"/>
@@ -6649,7 +6649,7 @@
         <v>77</v>
       </c>
       <c r="E47" s="25">
-        <f>SUM(F47:F47)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F47" s="25"/>
@@ -6663,7 +6663,7 @@
         <v>79</v>
       </c>
       <c r="E48" s="25">
-        <f>SUM(F48:F48)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F48" s="25"/>
@@ -6677,7 +6677,7 @@
         <v>81</v>
       </c>
       <c r="E49" s="25">
-        <f>SUM(F49:F49)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F49" s="25">
@@ -6693,7 +6693,7 @@
         <v>83</v>
       </c>
       <c r="E50" s="25">
-        <f>SUM(F50:F50)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F50" s="25">
@@ -6709,7 +6709,7 @@
         <v>85</v>
       </c>
       <c r="E51" s="25">
-        <f>SUM(F51:F51)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F51" s="25">
@@ -6725,7 +6725,7 @@
         <v>87</v>
       </c>
       <c r="E52" s="25">
-        <f>SUM(F52:F52)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F52" s="25">
@@ -6741,7 +6741,7 @@
         <v>89</v>
       </c>
       <c r="E53" s="25">
-        <f>SUM(F53:F53)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F53" s="25"/>
@@ -6755,7 +6755,7 @@
         <v>91</v>
       </c>
       <c r="E54" s="25">
-        <f>SUM(F54:F54)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F54" s="25"/>
@@ -6769,7 +6769,7 @@
         <v>93</v>
       </c>
       <c r="E55" s="25">
-        <f>SUM(F55:F55)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F55" s="25">
@@ -6785,7 +6785,7 @@
         <v>95</v>
       </c>
       <c r="E56" s="25">
-        <f>SUM(F56:F56)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F56" s="25">
@@ -6801,7 +6801,7 @@
         <v>97</v>
       </c>
       <c r="E57" s="25">
-        <f>SUM(F57:F57)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F57" s="25"/>
@@ -6815,7 +6815,7 @@
         <v>99</v>
       </c>
       <c r="E58" s="25">
-        <f>SUM(F58:F58)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F58" s="25"/>
@@ -6829,7 +6829,7 @@
         <v>101</v>
       </c>
       <c r="E59" s="25">
-        <f>SUM(F59:F59)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F59" s="25"/>
@@ -6843,7 +6843,7 @@
         <v>103</v>
       </c>
       <c r="E60" s="25">
-        <f>SUM(F60:F60)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F60" s="25"/>
@@ -6857,7 +6857,7 @@
         <v>105</v>
       </c>
       <c r="E61" s="25">
-        <f>SUM(F61:F61)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F61" s="25"/>
@@ -6871,7 +6871,7 @@
         <v>107</v>
       </c>
       <c r="E62" s="25">
-        <f>SUM(F62:F62)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F62" s="25"/>
@@ -6885,7 +6885,7 @@
         <v>109</v>
       </c>
       <c r="E63" s="25">
-        <f>SUM(F63:F63)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F63" s="25">
@@ -6901,7 +6901,7 @@
         <v>111</v>
       </c>
       <c r="E64" s="25">
-        <f>SUM(F64:F64)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F64" s="25"/>
@@ -6915,7 +6915,7 @@
         <v>113</v>
       </c>
       <c r="E65" s="25">
-        <f>SUM(F65:F65)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F65" s="25"/>
@@ -6929,7 +6929,7 @@
         <v>115</v>
       </c>
       <c r="E66" s="25">
-        <f>SUM(F66:F66)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F66" s="25"/>
@@ -6943,7 +6943,7 @@
         <v>117</v>
       </c>
       <c r="E67" s="25">
-        <f>SUM(F67:F67)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F67" s="25">
@@ -6959,7 +6959,7 @@
         <v>119</v>
       </c>
       <c r="E68" s="25">
-        <f>SUM(F68:F68)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F68" s="25"/>
@@ -6973,7 +6973,7 @@
         <v>121</v>
       </c>
       <c r="E69" s="25">
-        <f>SUM(F69:F69)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F69" s="25"/>
@@ -6987,7 +6987,7 @@
         <v>123</v>
       </c>
       <c r="E70" s="25">
-        <f>SUM(F70:F70)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F70" s="25"/>
@@ -7001,7 +7001,7 @@
         <v>125</v>
       </c>
       <c r="E71" s="25">
-        <f>SUM(F71:F71)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F71" s="25"/>
@@ -7015,7 +7015,7 @@
         <v>127</v>
       </c>
       <c r="E72" s="25">
-        <f>SUM(F72:F72)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F72" s="25"/>
@@ -7029,7 +7029,7 @@
         <v>129</v>
       </c>
       <c r="E73" s="25">
-        <f>SUM(F73:F73)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F73" s="25"/>
@@ -7043,7 +7043,7 @@
         <v>131</v>
       </c>
       <c r="E74" s="25">
-        <f>SUM(F74:F74)</f>
+        <f t="shared" ref="E74:E137" si="1">SUM(F74:F74)</f>
         <v>1</v>
       </c>
       <c r="F74" s="25">
@@ -7059,7 +7059,7 @@
         <v>133</v>
       </c>
       <c r="E75" s="25">
-        <f>SUM(F75:F75)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F75" s="25"/>
@@ -7073,7 +7073,7 @@
         <v>135</v>
       </c>
       <c r="E76" s="25">
-        <f>SUM(F76:F76)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F76" s="25"/>
@@ -7087,7 +7087,7 @@
         <v>137</v>
       </c>
       <c r="E77" s="25">
-        <f>SUM(F77:F77)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F77" s="25"/>
@@ -7101,7 +7101,7 @@
         <v>139</v>
       </c>
       <c r="E78" s="25">
-        <f>SUM(F78:F78)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F78" s="25"/>
@@ -7115,7 +7115,7 @@
         <v>141</v>
       </c>
       <c r="E79" s="25">
-        <f>SUM(F79:F79)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F79" s="25"/>
@@ -7129,7 +7129,7 @@
         <v>143</v>
       </c>
       <c r="E80" s="25">
-        <f>SUM(F80:F80)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F80" s="25">
@@ -7145,7 +7145,7 @@
         <v>145</v>
       </c>
       <c r="E81" s="25">
-        <f>SUM(F81:F81)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F81" s="25"/>
@@ -7159,7 +7159,7 @@
         <v>147</v>
       </c>
       <c r="E82" s="25">
-        <f>SUM(F82:F82)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F82" s="25">
@@ -7175,7 +7175,7 @@
         <v>149</v>
       </c>
       <c r="E83" s="25">
-        <f>SUM(F83:F83)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F83" s="25"/>
@@ -7189,7 +7189,7 @@
         <v>151</v>
       </c>
       <c r="E84" s="25">
-        <f>SUM(F84:F84)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F84" s="25"/>
@@ -7203,7 +7203,7 @@
         <v>153</v>
       </c>
       <c r="E85" s="25">
-        <f>SUM(F85:F85)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F85" s="25"/>
@@ -7217,7 +7217,7 @@
         <v>155</v>
       </c>
       <c r="E86" s="25">
-        <f>SUM(F86:F86)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F86" s="25">
@@ -7233,7 +7233,7 @@
         <v>157</v>
       </c>
       <c r="E87" s="25">
-        <f>SUM(F87:F87)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F87" s="25"/>
@@ -7247,7 +7247,7 @@
         <v>159</v>
       </c>
       <c r="E88" s="25">
-        <f>SUM(F88:F88)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F88" s="25"/>
@@ -7261,7 +7261,7 @@
         <v>161</v>
       </c>
       <c r="E89" s="25">
-        <f>SUM(F89:F89)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F89" s="25"/>
@@ -7275,7 +7275,7 @@
         <v>163</v>
       </c>
       <c r="E90" s="25">
-        <f>SUM(F90:F90)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F90" s="25"/>
@@ -7289,7 +7289,7 @@
         <v>165</v>
       </c>
       <c r="E91" s="25">
-        <f>SUM(F91:F91)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F91" s="25">
@@ -7305,7 +7305,7 @@
         <v>167</v>
       </c>
       <c r="E92" s="25">
-        <f>SUM(F92:F92)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F92" s="25"/>
@@ -7319,7 +7319,7 @@
         <v>169</v>
       </c>
       <c r="E93" s="25">
-        <f>SUM(F93:F93)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F93" s="25">
@@ -7335,7 +7335,7 @@
         <v>171</v>
       </c>
       <c r="E94" s="25">
-        <f>SUM(F94:F94)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F94" s="25">
@@ -7351,7 +7351,7 @@
         <v>173</v>
       </c>
       <c r="E95" s="25">
-        <f>SUM(F95:F95)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F95" s="25"/>
@@ -7365,7 +7365,7 @@
         <v>175</v>
       </c>
       <c r="E96" s="25">
-        <f>SUM(F96:F96)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F96" s="25"/>
@@ -7379,7 +7379,7 @@
         <v>177</v>
       </c>
       <c r="E97" s="25">
-        <f>SUM(F97:F97)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F97" s="25"/>
@@ -7393,7 +7393,7 @@
         <v>179</v>
       </c>
       <c r="E98" s="25">
-        <f>SUM(F98:F98)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F98" s="25"/>
@@ -7407,7 +7407,7 @@
         <v>181</v>
       </c>
       <c r="E99" s="25">
-        <f>SUM(F99:F99)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F99" s="25"/>
@@ -7421,7 +7421,7 @@
         <v>183</v>
       </c>
       <c r="E100" s="25">
-        <f>SUM(F100:F100)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F100" s="25"/>
@@ -7435,7 +7435,7 @@
         <v>185</v>
       </c>
       <c r="E101" s="25">
-        <f>SUM(F101:F101)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F101" s="25"/>
@@ -7449,7 +7449,7 @@
         <v>187</v>
       </c>
       <c r="E102" s="25">
-        <f>SUM(F102:F102)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F102" s="25"/>
@@ -7463,7 +7463,7 @@
         <v>189</v>
       </c>
       <c r="E103" s="25">
-        <f>SUM(F103:F103)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F103" s="25">
@@ -7479,7 +7479,7 @@
         <v>191</v>
       </c>
       <c r="E104" s="25">
-        <f>SUM(F104:F104)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F104" s="25"/>
@@ -7493,7 +7493,7 @@
         <v>193</v>
       </c>
       <c r="E105" s="25">
-        <f>SUM(F105:F105)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F105" s="25">
@@ -7509,7 +7509,7 @@
         <v>195</v>
       </c>
       <c r="E106" s="25">
-        <f>SUM(F106:F106)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F106" s="25"/>
@@ -7523,7 +7523,7 @@
         <v>197</v>
       </c>
       <c r="E107" s="25">
-        <f>SUM(F107:F107)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F107" s="25">
@@ -7539,7 +7539,7 @@
         <v>199</v>
       </c>
       <c r="E108" s="25">
-        <f>SUM(F108:F108)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F108" s="25">
@@ -7555,7 +7555,7 @@
         <v>201</v>
       </c>
       <c r="E109" s="25">
-        <f>SUM(F109:F109)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F109" s="25"/>
@@ -7569,7 +7569,7 @@
         <v>203</v>
       </c>
       <c r="E110" s="25">
-        <f>SUM(F110:F110)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F110" s="25"/>
@@ -7583,7 +7583,7 @@
         <v>205</v>
       </c>
       <c r="E111" s="25">
-        <f>SUM(F111:F111)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F111" s="25">
@@ -7599,7 +7599,7 @@
         <v>207</v>
       </c>
       <c r="E112" s="25">
-        <f>SUM(F112:F112)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F112" s="25"/>
@@ -7613,7 +7613,7 @@
         <v>209</v>
       </c>
       <c r="E113" s="25">
-        <f>SUM(F113:F113)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F113" s="25">
@@ -7629,7 +7629,7 @@
         <v>211</v>
       </c>
       <c r="E114" s="25">
-        <f>SUM(F114:F114)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F114" s="25">
@@ -7645,7 +7645,7 @@
         <v>213</v>
       </c>
       <c r="E115" s="25">
-        <f>SUM(F115:F115)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F115" s="25">
@@ -7661,7 +7661,7 @@
         <v>215</v>
       </c>
       <c r="E116" s="25">
-        <f>SUM(F116:F116)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F116" s="25">
@@ -7677,7 +7677,7 @@
         <v>217</v>
       </c>
       <c r="E117" s="25">
-        <f>SUM(F117:F117)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F117" s="25"/>
@@ -7691,7 +7691,7 @@
         <v>219</v>
       </c>
       <c r="E118" s="25">
-        <f>SUM(F118:F118)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F118" s="25">
@@ -7707,7 +7707,7 @@
         <v>221</v>
       </c>
       <c r="E119" s="25">
-        <f>SUM(F119:F119)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F119" s="25"/>
@@ -7721,7 +7721,7 @@
         <v>223</v>
       </c>
       <c r="E120" s="25">
-        <f>SUM(F120:F120)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F120" s="25"/>
@@ -7735,7 +7735,7 @@
         <v>225</v>
       </c>
       <c r="E121" s="25">
-        <f>SUM(F121:F121)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F121" s="25">
@@ -7751,7 +7751,7 @@
         <v>227</v>
       </c>
       <c r="E122" s="25">
-        <f>SUM(F122:F122)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F122" s="25"/>
@@ -7765,7 +7765,7 @@
         <v>229</v>
       </c>
       <c r="E123" s="25">
-        <f>SUM(F123:F123)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F123" s="25">
@@ -7781,7 +7781,7 @@
         <v>231</v>
       </c>
       <c r="E124" s="25">
-        <f>SUM(F124:F124)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F124" s="25">
@@ -7797,7 +7797,7 @@
         <v>233</v>
       </c>
       <c r="E125" s="25">
-        <f>SUM(F125:F125)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F125" s="25">
@@ -7813,7 +7813,7 @@
         <v>235</v>
       </c>
       <c r="E126" s="25">
-        <f>SUM(F126:F126)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F126" s="25"/>
@@ -7827,7 +7827,7 @@
         <v>237</v>
       </c>
       <c r="E127" s="25">
-        <f>SUM(F127:F127)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F127" s="25"/>
@@ -7841,7 +7841,7 @@
         <v>239</v>
       </c>
       <c r="E128" s="25">
-        <f>SUM(F128:F128)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F128" s="25"/>
@@ -7855,7 +7855,7 @@
         <v>241</v>
       </c>
       <c r="E129" s="25">
-        <f>SUM(F129:F129)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F129" s="25">
@@ -7871,7 +7871,7 @@
         <v>243</v>
       </c>
       <c r="E130" s="25">
-        <f>SUM(F130:F130)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F130" s="25">
@@ -7887,7 +7887,7 @@
         <v>245</v>
       </c>
       <c r="E131" s="25">
-        <f>SUM(F131:F131)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="F131" s="25">
@@ -7903,7 +7903,7 @@
         <v>247</v>
       </c>
       <c r="E132" s="25">
-        <f>SUM(F132:F132)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F132" s="25"/>
@@ -7917,7 +7917,7 @@
         <v>249</v>
       </c>
       <c r="E133" s="25">
-        <f>SUM(F133:F133)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F133" s="25"/>
@@ -7931,7 +7931,7 @@
         <v>251</v>
       </c>
       <c r="E134" s="25">
-        <f>SUM(F134:F134)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F134" s="25"/>
@@ -7945,7 +7945,7 @@
         <v>253</v>
       </c>
       <c r="E135" s="25">
-        <f>SUM(F135:F135)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F135" s="25"/>
@@ -7959,7 +7959,7 @@
         <v>255</v>
       </c>
       <c r="E136" s="25">
-        <f>SUM(F136:F136)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F136" s="25"/>
@@ -7973,7 +7973,7 @@
         <v>257</v>
       </c>
       <c r="E137" s="25">
-        <f>SUM(F137:F137)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F137" s="25"/>
@@ -7987,7 +7987,7 @@
         <v>259</v>
       </c>
       <c r="E138" s="25">
-        <f>SUM(F138:F138)</f>
+        <f t="shared" ref="E138:E201" si="2">SUM(F138:F138)</f>
         <v>1</v>
       </c>
       <c r="F138" s="25">
@@ -8003,7 +8003,7 @@
         <v>261</v>
       </c>
       <c r="E139" s="25">
-        <f>SUM(F139:F139)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F139" s="25"/>
@@ -8017,7 +8017,7 @@
         <v>263</v>
       </c>
       <c r="E140" s="25">
-        <f>SUM(F140:F140)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F140" s="25">
@@ -8033,7 +8033,7 @@
         <v>265</v>
       </c>
       <c r="E141" s="25">
-        <f>SUM(F141:F141)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F141" s="25">
@@ -8049,7 +8049,7 @@
         <v>267</v>
       </c>
       <c r="E142" s="25">
-        <f>SUM(F142:F142)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F142" s="25">
@@ -8065,7 +8065,7 @@
         <v>269</v>
       </c>
       <c r="E143" s="25">
-        <f>SUM(F143:F143)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F143" s="25">
@@ -8081,7 +8081,7 @@
         <v>271</v>
       </c>
       <c r="E144" s="25">
-        <f>SUM(F144:F144)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F144" s="25"/>
@@ -8095,7 +8095,7 @@
         <v>273</v>
       </c>
       <c r="E145" s="25">
-        <f>SUM(F145:F145)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F145" s="25"/>
@@ -8109,7 +8109,7 @@
         <v>275</v>
       </c>
       <c r="E146" s="25">
-        <f>SUM(F146:F146)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F146" s="25"/>
@@ -8123,7 +8123,7 @@
         <v>277</v>
       </c>
       <c r="E147" s="25">
-        <f>SUM(F147:F147)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F147" s="25"/>
@@ -8137,7 +8137,7 @@
         <v>279</v>
       </c>
       <c r="E148" s="25">
-        <f>SUM(F148:F148)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F148" s="25">
@@ -8153,7 +8153,7 @@
         <v>281</v>
       </c>
       <c r="E149" s="25">
-        <f>SUM(F149:F149)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F149" s="25">
@@ -8169,7 +8169,7 @@
         <v>283</v>
       </c>
       <c r="E150" s="25">
-        <f>SUM(F150:F150)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F150" s="25"/>
@@ -8183,7 +8183,7 @@
         <v>285</v>
       </c>
       <c r="E151" s="25">
-        <f>SUM(F151:F151)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F151" s="25">
@@ -8199,7 +8199,7 @@
         <v>287</v>
       </c>
       <c r="E152" s="25">
-        <f>SUM(F152:F152)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F152" s="25"/>
@@ -8213,7 +8213,7 @@
         <v>289</v>
       </c>
       <c r="E153" s="25">
-        <f>SUM(F153:F153)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F153" s="25"/>
@@ -8227,7 +8227,7 @@
         <v>291</v>
       </c>
       <c r="E154" s="25">
-        <f>SUM(F154:F154)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F154" s="25"/>
@@ -8241,7 +8241,7 @@
         <v>293</v>
       </c>
       <c r="E155" s="25">
-        <f>SUM(F155:F155)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F155" s="25"/>
@@ -8255,7 +8255,7 @@
         <v>295</v>
       </c>
       <c r="E156" s="25">
-        <f>SUM(F156:F156)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F156" s="25"/>
@@ -8269,7 +8269,7 @@
         <v>297</v>
       </c>
       <c r="E157" s="25">
-        <f>SUM(F157:F157)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F157" s="25"/>
@@ -8283,7 +8283,7 @@
         <v>299</v>
       </c>
       <c r="E158" s="25">
-        <f>SUM(F158:F158)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F158" s="25">
@@ -8299,7 +8299,7 @@
         <v>301</v>
       </c>
       <c r="E159" s="25">
-        <f>SUM(F159:F159)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F159" s="25"/>
@@ -8313,7 +8313,7 @@
         <v>303</v>
       </c>
       <c r="E160" s="25">
-        <f>SUM(F160:F160)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F160" s="25">
@@ -8329,7 +8329,7 @@
         <v>305</v>
       </c>
       <c r="E161" s="25">
-        <f>SUM(F161:F161)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F161" s="25">
@@ -8345,7 +8345,7 @@
         <v>307</v>
       </c>
       <c r="E162" s="25">
-        <f>SUM(F162:F162)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F162" s="25"/>
@@ -8359,7 +8359,7 @@
         <v>309</v>
       </c>
       <c r="E163" s="25">
-        <f>SUM(F163:F163)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F163" s="25">
@@ -8375,7 +8375,7 @@
         <v>311</v>
       </c>
       <c r="E164" s="25">
-        <f>SUM(F164:F164)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F164" s="25">
@@ -8391,7 +8391,7 @@
         <v>313</v>
       </c>
       <c r="E165" s="25">
-        <f>SUM(F165:F165)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F165" s="25"/>
@@ -8405,7 +8405,7 @@
         <v>315</v>
       </c>
       <c r="E166" s="25">
-        <f>SUM(F166:F166)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F166" s="25"/>
@@ -8419,7 +8419,7 @@
         <v>317</v>
       </c>
       <c r="E167" s="25">
-        <f>SUM(F167:F167)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F167" s="25"/>
@@ -8433,7 +8433,7 @@
         <v>319</v>
       </c>
       <c r="E168" s="25">
-        <f>SUM(F168:F168)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F168" s="25"/>
@@ -8447,7 +8447,7 @@
         <v>321</v>
       </c>
       <c r="E169" s="25">
-        <f>SUM(F169:F169)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F169" s="25">
@@ -8463,7 +8463,7 @@
         <v>323</v>
       </c>
       <c r="E170" s="25">
-        <f>SUM(F170:F170)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F170" s="25">
@@ -8479,7 +8479,7 @@
         <v>325</v>
       </c>
       <c r="E171" s="25">
-        <f>SUM(F171:F171)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F171" s="25"/>
@@ -8493,7 +8493,7 @@
         <v>327</v>
       </c>
       <c r="E172" s="25">
-        <f>SUM(F172:F172)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F172" s="25"/>
@@ -8507,7 +8507,7 @@
         <v>329</v>
       </c>
       <c r="E173" s="25">
-        <f>SUM(F173:F173)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F173" s="25"/>
@@ -8521,7 +8521,7 @@
         <v>331</v>
       </c>
       <c r="E174" s="25">
-        <f>SUM(F174:F174)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F174" s="25"/>
@@ -8535,7 +8535,7 @@
         <v>333</v>
       </c>
       <c r="E175" s="25">
-        <f>SUM(F175:F175)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F175" s="25"/>
@@ -8549,7 +8549,7 @@
         <v>335</v>
       </c>
       <c r="E176" s="25">
-        <f>SUM(F176:F176)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F176" s="25">
@@ -8565,7 +8565,7 @@
         <v>337</v>
       </c>
       <c r="E177" s="25">
-        <f>SUM(F177:F177)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F177" s="25">
@@ -8581,7 +8581,7 @@
         <v>339</v>
       </c>
       <c r="E178" s="25">
-        <f>SUM(F178:F178)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F178" s="25"/>
@@ -8595,7 +8595,7 @@
         <v>341</v>
       </c>
       <c r="E179" s="25">
-        <f>SUM(F179:F179)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F179" s="25"/>
@@ -8609,7 +8609,7 @@
         <v>343</v>
       </c>
       <c r="E180" s="25">
-        <f>SUM(F180:F180)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F180" s="25"/>
@@ -8623,7 +8623,7 @@
         <v>345</v>
       </c>
       <c r="E181" s="25">
-        <f>SUM(F181:F181)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F181" s="25">
@@ -8639,7 +8639,7 @@
         <v>347</v>
       </c>
       <c r="E182" s="25">
-        <f>SUM(F182:F182)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F182" s="25"/>
@@ -8653,7 +8653,7 @@
         <v>349</v>
       </c>
       <c r="E183" s="25">
-        <f>SUM(F183:F183)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F183" s="25"/>
@@ -8667,7 +8667,7 @@
         <v>351</v>
       </c>
       <c r="E184" s="25">
-        <f>SUM(F184:F184)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F184" s="25"/>
@@ -8681,7 +8681,7 @@
         <v>353</v>
       </c>
       <c r="E185" s="25">
-        <f>SUM(F185:F185)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F185" s="25"/>
@@ -8695,7 +8695,7 @@
         <v>355</v>
       </c>
       <c r="E186" s="25">
-        <f>SUM(F186:F186)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F186" s="25">
@@ -8711,7 +8711,7 @@
         <v>357</v>
       </c>
       <c r="E187" s="25">
-        <f>SUM(F187:F187)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F187" s="25">
@@ -8727,7 +8727,7 @@
         <v>359</v>
       </c>
       <c r="E188" s="25">
-        <f>SUM(F188:F188)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F188" s="25">
@@ -8743,7 +8743,7 @@
         <v>361</v>
       </c>
       <c r="E189" s="25">
-        <f>SUM(F189:F189)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F189" s="25"/>
@@ -8757,7 +8757,7 @@
         <v>363</v>
       </c>
       <c r="E190" s="25">
-        <f>SUM(F190:F190)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F190" s="25"/>
@@ -8771,7 +8771,7 @@
         <v>365</v>
       </c>
       <c r="E191" s="25">
-        <f>SUM(F191:F191)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F191" s="25"/>
@@ -8785,7 +8785,7 @@
         <v>367</v>
       </c>
       <c r="E192" s="25">
-        <f>SUM(F192:F192)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F192" s="25">
@@ -8801,7 +8801,7 @@
         <v>369</v>
       </c>
       <c r="E193" s="25">
-        <f>SUM(F193:F193)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F193" s="25">
@@ -8817,7 +8817,7 @@
         <v>371</v>
       </c>
       <c r="E194" s="25">
-        <f>SUM(F194:F194)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F194" s="25">
@@ -8833,7 +8833,7 @@
         <v>373</v>
       </c>
       <c r="E195" s="25">
-        <f>SUM(F195:F195)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F195" s="25">
@@ -8849,7 +8849,7 @@
         <v>375</v>
       </c>
       <c r="E196" s="25">
-        <f>SUM(F196:F196)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F196" s="25"/>
@@ -8863,7 +8863,7 @@
         <v>377</v>
       </c>
       <c r="E197" s="25">
-        <f>SUM(F197:F197)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F197" s="25"/>
@@ -8877,7 +8877,7 @@
         <v>379</v>
       </c>
       <c r="E198" s="25">
-        <f>SUM(F198:F198)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F198" s="25">
@@ -8893,7 +8893,7 @@
         <v>381</v>
       </c>
       <c r="E199" s="25">
-        <f>SUM(F199:F199)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F199" s="25"/>
@@ -8907,7 +8907,7 @@
         <v>383</v>
       </c>
       <c r="E200" s="25">
-        <f>SUM(F200:F200)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="F200" s="25">
@@ -8923,7 +8923,7 @@
         <v>385</v>
       </c>
       <c r="E201" s="25">
-        <f>SUM(F201:F201)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F201" s="25"/>
@@ -8937,7 +8937,7 @@
         <v>387</v>
       </c>
       <c r="E202" s="25">
-        <f>SUM(F202:F202)</f>
+        <f t="shared" ref="E202:E265" si="3">SUM(F202:F202)</f>
         <v>0</v>
       </c>
       <c r="F202" s="25">
@@ -8953,7 +8953,7 @@
         <v>389</v>
       </c>
       <c r="E203" s="25">
-        <f>SUM(F203:F203)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F203" s="25"/>
@@ -8967,7 +8967,7 @@
         <v>391</v>
       </c>
       <c r="E204" s="25">
-        <f>SUM(F204:F204)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F204" s="25"/>
@@ -8981,7 +8981,7 @@
         <v>393</v>
       </c>
       <c r="E205" s="25">
-        <f>SUM(F205:F205)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F205" s="25"/>
@@ -8995,7 +8995,7 @@
         <v>395</v>
       </c>
       <c r="E206" s="25">
-        <f>SUM(F206:F206)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F206" s="25">
@@ -9011,7 +9011,7 @@
         <v>397</v>
       </c>
       <c r="E207" s="25">
-        <f>SUM(F207:F207)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F207" s="25"/>
@@ -9025,7 +9025,7 @@
         <v>399</v>
       </c>
       <c r="E208" s="25">
-        <f>SUM(F208:F208)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F208" s="25"/>
@@ -9039,7 +9039,7 @@
         <v>401</v>
       </c>
       <c r="E209" s="25">
-        <f>SUM(F209:F209)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F209" s="25"/>
@@ -9053,7 +9053,7 @@
         <v>403</v>
       </c>
       <c r="E210" s="25">
-        <f>SUM(F210:F210)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F210" s="25"/>
@@ -9067,7 +9067,7 @@
         <v>405</v>
       </c>
       <c r="E211" s="25">
-        <f>SUM(F211:F211)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F211" s="25"/>
@@ -9081,7 +9081,7 @@
         <v>407</v>
       </c>
       <c r="E212" s="25">
-        <f>SUM(F212:F212)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F212" s="25"/>
@@ -9095,7 +9095,7 @@
         <v>409</v>
       </c>
       <c r="E213" s="25">
-        <f>SUM(F213:F213)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F213" s="25">
@@ -9111,7 +9111,7 @@
         <v>411</v>
       </c>
       <c r="E214" s="25">
-        <f>SUM(F214:F214)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F214" s="25"/>
@@ -9125,7 +9125,7 @@
         <v>413</v>
       </c>
       <c r="E215" s="25">
-        <f>SUM(F215:F215)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F215" s="25"/>
@@ -9139,7 +9139,7 @@
         <v>415</v>
       </c>
       <c r="E216" s="25">
-        <f>SUM(F216:F216)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F216" s="25">
@@ -9155,7 +9155,7 @@
         <v>417</v>
       </c>
       <c r="E217" s="25">
-        <f>SUM(F217:F217)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F217" s="25">
@@ -9171,7 +9171,7 @@
         <v>419</v>
       </c>
       <c r="E218" s="25">
-        <f>SUM(F218:F218)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F218" s="25"/>
@@ -9185,7 +9185,7 @@
         <v>421</v>
       </c>
       <c r="E219" s="25">
-        <f>SUM(F219:F219)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F219" s="25">
@@ -9201,7 +9201,7 @@
         <v>423</v>
       </c>
       <c r="E220" s="25">
-        <f>SUM(F220:F220)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F220" s="25">
@@ -9217,7 +9217,7 @@
         <v>425</v>
       </c>
       <c r="E221" s="25">
-        <f>SUM(F221:F221)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F221" s="25">
@@ -9233,7 +9233,7 @@
         <v>427</v>
       </c>
       <c r="E222" s="25">
-        <f>SUM(F222:F222)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F222" s="25">
@@ -9249,7 +9249,7 @@
         <v>429</v>
       </c>
       <c r="E223" s="25">
-        <f>SUM(F223:F223)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F223" s="25"/>
@@ -9263,7 +9263,7 @@
         <v>431</v>
       </c>
       <c r="E224" s="25">
-        <f>SUM(F224:F224)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F224" s="25"/>
@@ -9277,7 +9277,7 @@
         <v>433</v>
       </c>
       <c r="E225" s="25">
-        <f>SUM(F225:F225)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F225" s="25"/>
@@ -9291,7 +9291,7 @@
         <v>435</v>
       </c>
       <c r="E226" s="25">
-        <f>SUM(F226:F226)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F226" s="25">
@@ -9307,7 +9307,7 @@
         <v>437</v>
       </c>
       <c r="E227" s="25">
-        <f>SUM(F227:F227)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F227" s="25"/>
@@ -9321,7 +9321,7 @@
         <v>439</v>
       </c>
       <c r="E228" s="25">
-        <f>SUM(F228:F228)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F228" s="25"/>
@@ -9335,7 +9335,7 @@
         <v>441</v>
       </c>
       <c r="E229" s="25">
-        <f>SUM(F229:F229)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F229" s="25"/>
@@ -9349,7 +9349,7 @@
         <v>443</v>
       </c>
       <c r="E230" s="25">
-        <f>SUM(F230:F230)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F230" s="25">
@@ -9365,7 +9365,7 @@
         <v>445</v>
       </c>
       <c r="E231" s="25">
-        <f>SUM(F231:F231)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F231" s="25"/>
@@ -9379,7 +9379,7 @@
         <v>447</v>
       </c>
       <c r="E232" s="25">
-        <f>SUM(F232:F232)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F232" s="25">
@@ -9395,7 +9395,7 @@
         <v>449</v>
       </c>
       <c r="E233" s="25">
-        <f>SUM(F233:F233)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F233" s="25"/>
@@ -9409,7 +9409,7 @@
         <v>451</v>
       </c>
       <c r="E234" s="25">
-        <f>SUM(F234:F234)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F234" s="25">
@@ -9425,7 +9425,7 @@
         <v>453</v>
       </c>
       <c r="E235" s="25">
-        <f>SUM(F235:F235)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F235" s="25">
@@ -9441,7 +9441,7 @@
         <v>455</v>
       </c>
       <c r="E236" s="25">
-        <f>SUM(F236:F236)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F236" s="25"/>
@@ -9455,7 +9455,7 @@
         <v>457</v>
       </c>
       <c r="E237" s="25">
-        <f>SUM(F237:F237)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F237" s="25">
@@ -9471,7 +9471,7 @@
         <v>459</v>
       </c>
       <c r="E238" s="25">
-        <f>SUM(F238:F238)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F238" s="25">
@@ -9487,7 +9487,7 @@
         <v>461</v>
       </c>
       <c r="E239" s="25">
-        <f>SUM(F239:F239)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F239" s="25"/>
@@ -9501,7 +9501,7 @@
         <v>463</v>
       </c>
       <c r="E240" s="25">
-        <f>SUM(F240:F240)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F240" s="25"/>
@@ -9515,7 +9515,7 @@
         <v>465</v>
       </c>
       <c r="E241" s="25">
-        <f>SUM(F241:F241)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F241" s="25"/>
@@ -9529,7 +9529,7 @@
         <v>467</v>
       </c>
       <c r="E242" s="25">
-        <f>SUM(F242:F242)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F242" s="25"/>
@@ -9543,7 +9543,7 @@
         <v>469</v>
       </c>
       <c r="E243" s="25">
-        <f>SUM(F243:F243)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F243" s="25"/>
@@ -9557,7 +9557,7 @@
         <v>471</v>
       </c>
       <c r="E244" s="25">
-        <f>SUM(F244:F244)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F244" s="25">
@@ -9573,7 +9573,7 @@
         <v>473</v>
       </c>
       <c r="E245" s="25">
-        <f>SUM(F245:F245)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F245" s="25">
@@ -9589,7 +9589,7 @@
         <v>475</v>
       </c>
       <c r="E246" s="25">
-        <f>SUM(F246:F246)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F246" s="25">
@@ -9605,7 +9605,7 @@
         <v>477</v>
       </c>
       <c r="E247" s="25">
-        <f>SUM(F247:F247)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F247" s="25"/>
@@ -9619,7 +9619,7 @@
         <v>479</v>
       </c>
       <c r="E248" s="25">
-        <f>SUM(F248:F248)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F248" s="25">
@@ -9635,7 +9635,7 @@
         <v>481</v>
       </c>
       <c r="E249" s="25">
-        <f>SUM(F249:F249)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F249" s="25">
@@ -9651,7 +9651,7 @@
         <v>483</v>
       </c>
       <c r="E250" s="25">
-        <f>SUM(F250:F250)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F250" s="25">
@@ -9667,7 +9667,7 @@
         <v>485</v>
       </c>
       <c r="E251" s="25">
-        <f>SUM(F251:F251)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F251" s="25">
@@ -9683,7 +9683,7 @@
         <v>487</v>
       </c>
       <c r="E252" s="25">
-        <f>SUM(F252:F252)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F252" s="25">
@@ -9699,7 +9699,7 @@
         <v>489</v>
       </c>
       <c r="E253" s="25">
-        <f>SUM(F253:F253)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F253" s="25"/>
@@ -9713,7 +9713,7 @@
         <v>491</v>
       </c>
       <c r="E254" s="25">
-        <f>SUM(F254:F254)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F254" s="25"/>
@@ -9727,7 +9727,7 @@
         <v>493</v>
       </c>
       <c r="E255" s="25">
-        <f>SUM(F255:F255)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F255" s="25"/>
@@ -9741,7 +9741,7 @@
         <v>495</v>
       </c>
       <c r="E256" s="25">
-        <f>SUM(F256:F256)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F256" s="25">
@@ -9757,7 +9757,7 @@
         <v>497</v>
       </c>
       <c r="E257" s="25">
-        <f>SUM(F257:F257)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F257" s="25">
@@ -9773,7 +9773,7 @@
         <v>499</v>
       </c>
       <c r="E258" s="25">
-        <f>SUM(F258:F258)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F258" s="25"/>
@@ -9787,7 +9787,7 @@
         <v>501</v>
       </c>
       <c r="E259" s="25">
-        <f>SUM(F259:F259)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F259" s="25">
@@ -9803,7 +9803,7 @@
         <v>503</v>
       </c>
       <c r="E260" s="25">
-        <f>SUM(F260:F260)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F260" s="25"/>
@@ -9817,7 +9817,7 @@
         <v>505</v>
       </c>
       <c r="E261" s="25">
-        <f>SUM(F261:F261)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F261" s="25"/>
@@ -9831,7 +9831,7 @@
         <v>507</v>
       </c>
       <c r="E262" s="25">
-        <f>SUM(F262:F262)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F262" s="25">
@@ -9847,7 +9847,7 @@
         <v>509</v>
       </c>
       <c r="E263" s="25">
-        <f>SUM(F263:F263)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F263" s="25"/>
@@ -9861,7 +9861,7 @@
         <v>511</v>
       </c>
       <c r="E264" s="25">
-        <f>SUM(F264:F264)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F264" s="25">
@@ -9877,7 +9877,7 @@
         <v>513</v>
       </c>
       <c r="E265" s="25">
-        <f>SUM(F265:F265)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F265" s="25"/>
@@ -9891,7 +9891,7 @@
         <v>515</v>
       </c>
       <c r="E266" s="25">
-        <f>SUM(F266:F266)</f>
+        <f t="shared" ref="E266:E329" si="4">SUM(F266:F266)</f>
         <v>0</v>
       </c>
       <c r="F266" s="25"/>
@@ -9905,7 +9905,7 @@
         <v>517</v>
       </c>
       <c r="E267" s="25">
-        <f>SUM(F267:F267)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F267" s="25"/>
@@ -9919,7 +9919,7 @@
         <v>519</v>
       </c>
       <c r="E268" s="25">
-        <f>SUM(F268:F268)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F268" s="25"/>
@@ -9933,7 +9933,7 @@
         <v>521</v>
       </c>
       <c r="E269" s="25">
-        <f>SUM(F269:F269)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F269" s="25"/>
@@ -9947,7 +9947,7 @@
         <v>523</v>
       </c>
       <c r="E270" s="25">
-        <f>SUM(F270:F270)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F270" s="25"/>
@@ -9961,7 +9961,7 @@
         <v>525</v>
       </c>
       <c r="E271" s="25">
-        <f>SUM(F271:F271)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F271" s="25"/>
@@ -9975,7 +9975,7 @@
         <v>527</v>
       </c>
       <c r="E272" s="25">
-        <f>SUM(F272:F272)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F272" s="25"/>
@@ -9989,7 +9989,7 @@
         <v>529</v>
       </c>
       <c r="E273" s="25">
-        <f>SUM(F273:F273)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F273" s="25">
@@ -10005,7 +10005,7 @@
         <v>531</v>
       </c>
       <c r="E274" s="25">
-        <f>SUM(F274:F274)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F274" s="25"/>
@@ -10019,7 +10019,7 @@
         <v>533</v>
       </c>
       <c r="E275" s="25">
-        <f>SUM(F275:F275)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F275" s="25"/>
@@ -10033,7 +10033,7 @@
         <v>535</v>
       </c>
       <c r="E276" s="25">
-        <f>SUM(F276:F276)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F276" s="25"/>
@@ -10047,7 +10047,7 @@
         <v>537</v>
       </c>
       <c r="E277" s="25">
-        <f>SUM(F277:F277)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F277" s="25"/>
@@ -10061,7 +10061,7 @@
         <v>539</v>
       </c>
       <c r="E278" s="25">
-        <f>SUM(F278:F278)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F278" s="25">
@@ -10077,7 +10077,7 @@
         <v>541</v>
       </c>
       <c r="E279" s="25">
-        <f>SUM(F279:F279)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F279" s="25"/>
@@ -10091,7 +10091,7 @@
         <v>543</v>
       </c>
       <c r="E280" s="25">
-        <f>SUM(F280:F280)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F280" s="25"/>
@@ -10105,7 +10105,7 @@
         <v>545</v>
       </c>
       <c r="E281" s="25">
-        <f>SUM(F281:F281)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F281" s="25"/>
@@ -10119,7 +10119,7 @@
         <v>547</v>
       </c>
       <c r="E282" s="25">
-        <f>SUM(F282:F282)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F282" s="25"/>
@@ -10133,7 +10133,7 @@
         <v>549</v>
       </c>
       <c r="E283" s="25">
-        <f>SUM(F283:F283)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F283" s="25"/>
@@ -10147,7 +10147,7 @@
         <v>551</v>
       </c>
       <c r="E284" s="25">
-        <f>SUM(F284:F284)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F284" s="25"/>
@@ -10161,7 +10161,7 @@
         <v>553</v>
       </c>
       <c r="E285" s="25">
-        <f>SUM(F285:F285)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F285" s="25"/>
@@ -10175,7 +10175,7 @@
         <v>555</v>
       </c>
       <c r="E286" s="25">
-        <f>SUM(F286:F286)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F286" s="25"/>
@@ -10189,7 +10189,7 @@
         <v>557</v>
       </c>
       <c r="E287" s="25">
-        <f>SUM(F287:F287)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F287" s="25"/>
@@ -10203,7 +10203,7 @@
         <v>559</v>
       </c>
       <c r="E288" s="25">
-        <f>SUM(F288:F288)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F288" s="25">
@@ -10219,7 +10219,7 @@
         <v>561</v>
       </c>
       <c r="E289" s="25">
-        <f>SUM(F289:F289)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F289" s="25"/>
@@ -10233,7 +10233,7 @@
         <v>563</v>
       </c>
       <c r="E290" s="25">
-        <f>SUM(F290:F290)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F290" s="25"/>
@@ -10247,7 +10247,7 @@
         <v>565</v>
       </c>
       <c r="E291" s="25">
-        <f>SUM(F291:F291)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F291" s="25">
@@ -10263,7 +10263,7 @@
         <v>567</v>
       </c>
       <c r="E292" s="25">
-        <f>SUM(F292:F292)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F292" s="25"/>
@@ -10277,7 +10277,7 @@
         <v>569</v>
       </c>
       <c r="E293" s="25">
-        <f>SUM(F293:F293)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F293" s="25"/>
@@ -10291,7 +10291,7 @@
         <v>571</v>
       </c>
       <c r="E294" s="25">
-        <f>SUM(F294:F294)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F294" s="25"/>
@@ -10305,7 +10305,7 @@
         <v>573</v>
       </c>
       <c r="E295" s="25">
-        <f>SUM(F295:F295)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F295" s="25"/>
@@ -10319,7 +10319,7 @@
         <v>575</v>
       </c>
       <c r="E296" s="25">
-        <f>SUM(F296:F296)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F296" s="25"/>
@@ -10333,7 +10333,7 @@
         <v>577</v>
       </c>
       <c r="E297" s="25">
-        <f>SUM(F297:F297)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F297" s="25">
@@ -10349,7 +10349,7 @@
         <v>579</v>
       </c>
       <c r="E298" s="25">
-        <f>SUM(F298:F298)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F298" s="25"/>
@@ -10363,7 +10363,7 @@
         <v>581</v>
       </c>
       <c r="E299" s="25">
-        <f>SUM(F299:F299)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F299" s="25">
@@ -10379,7 +10379,7 @@
         <v>583</v>
       </c>
       <c r="E300" s="25">
-        <f>SUM(F300:F300)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F300" s="25"/>
@@ -10393,7 +10393,7 @@
         <v>585</v>
       </c>
       <c r="E301" s="25">
-        <f>SUM(F301:F301)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F301" s="25">
@@ -10409,7 +10409,7 @@
         <v>587</v>
       </c>
       <c r="E302" s="25">
-        <f>SUM(F302:F302)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F302" s="25"/>
@@ -10423,7 +10423,7 @@
         <v>589</v>
       </c>
       <c r="E303" s="25">
-        <f>SUM(F303:F303)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F303" s="25"/>
@@ -10437,7 +10437,7 @@
         <v>591</v>
       </c>
       <c r="E304" s="25">
-        <f>SUM(F304:F304)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F304" s="25"/>
@@ -10451,7 +10451,7 @@
         <v>593</v>
       </c>
       <c r="E305" s="25">
-        <f>SUM(F305:F305)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F305" s="25"/>
@@ -10465,7 +10465,7 @@
         <v>595</v>
       </c>
       <c r="E306" s="25">
-        <f>SUM(F306:F306)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F306" s="25"/>
@@ -10479,7 +10479,7 @@
         <v>597</v>
       </c>
       <c r="E307" s="25">
-        <f>SUM(F307:F307)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F307" s="25">
@@ -10495,7 +10495,7 @@
         <v>599</v>
       </c>
       <c r="E308" s="25">
-        <f>SUM(F308:F308)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F308" s="25"/>
@@ -10509,7 +10509,7 @@
         <v>601</v>
       </c>
       <c r="E309" s="25">
-        <f>SUM(F309:F309)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F309" s="25"/>
@@ -10523,7 +10523,7 @@
         <v>603</v>
       </c>
       <c r="E310" s="25">
-        <f>SUM(F310:F310)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F310" s="25">
@@ -10539,7 +10539,7 @@
         <v>605</v>
       </c>
       <c r="E311" s="25">
-        <f>SUM(F311:F311)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F311" s="25"/>
@@ -10553,7 +10553,7 @@
         <v>607</v>
       </c>
       <c r="E312" s="25">
-        <f>SUM(F312:F312)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F312" s="25">
@@ -10569,7 +10569,7 @@
         <v>609</v>
       </c>
       <c r="E313" s="25">
-        <f>SUM(F313:F313)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F313" s="25"/>
@@ -10583,7 +10583,7 @@
         <v>611</v>
       </c>
       <c r="E314" s="25">
-        <f>SUM(F314:F314)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F314" s="25">
@@ -10599,7 +10599,7 @@
         <v>613</v>
       </c>
       <c r="E315" s="25">
-        <f>SUM(F315:F315)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F315" s="25"/>
@@ -10613,7 +10613,7 @@
         <v>615</v>
       </c>
       <c r="E316" s="25">
-        <f>SUM(F316:F316)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F316" s="25"/>
@@ -10627,7 +10627,7 @@
         <v>617</v>
       </c>
       <c r="E317" s="25">
-        <f>SUM(F317:F317)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F317" s="25"/>
@@ -10641,7 +10641,7 @@
         <v>619</v>
       </c>
       <c r="E318" s="25">
-        <f>SUM(F318:F318)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F318" s="25"/>
@@ -10655,7 +10655,7 @@
         <v>621</v>
       </c>
       <c r="E319" s="25">
-        <f>SUM(F319:F319)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F319" s="25"/>
@@ -10669,7 +10669,7 @@
         <v>623</v>
       </c>
       <c r="E320" s="25">
-        <f>SUM(F320:F320)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F320" s="25">
@@ -10685,7 +10685,7 @@
         <v>625</v>
       </c>
       <c r="E321" s="25">
-        <f>SUM(F321:F321)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F321" s="25"/>
@@ -10699,7 +10699,7 @@
         <v>627</v>
       </c>
       <c r="E322" s="25">
-        <f>SUM(F322:F322)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F322" s="25">
@@ -10715,7 +10715,7 @@
         <v>629</v>
       </c>
       <c r="E323" s="25">
-        <f>SUM(F323:F323)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F323" s="25">
@@ -10731,7 +10731,7 @@
         <v>631</v>
       </c>
       <c r="E324" s="25">
-        <f>SUM(F324:F324)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F324" s="25">
@@ -10747,7 +10747,7 @@
         <v>633</v>
       </c>
       <c r="E325" s="25">
-        <f>SUM(F325:F325)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F325" s="25">
@@ -10763,7 +10763,7 @@
         <v>635</v>
       </c>
       <c r="E326" s="25">
-        <f>SUM(F326:F326)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F326" s="25">
@@ -10779,7 +10779,7 @@
         <v>637</v>
       </c>
       <c r="E327" s="25">
-        <f>SUM(F327:F327)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F327" s="25"/>
@@ -10793,7 +10793,7 @@
         <v>639</v>
       </c>
       <c r="E328" s="25">
-        <f>SUM(F328:F328)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F328" s="25">
@@ -10809,7 +10809,7 @@
         <v>641</v>
       </c>
       <c r="E329" s="25">
-        <f>SUM(F329:F329)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="F329" s="25">
@@ -10825,7 +10825,7 @@
         <v>643</v>
       </c>
       <c r="E330" s="25">
-        <f>SUM(F330:F330)</f>
+        <f t="shared" ref="E330:E393" si="5">SUM(F330:F330)</f>
         <v>1</v>
       </c>
       <c r="F330" s="25">
@@ -10841,7 +10841,7 @@
         <v>645</v>
       </c>
       <c r="E331" s="25">
-        <f>SUM(F331:F331)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F331" s="25"/>
@@ -10855,7 +10855,7 @@
         <v>647</v>
       </c>
       <c r="E332" s="25">
-        <f>SUM(F332:F332)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F332" s="25">
@@ -10871,7 +10871,7 @@
         <v>649</v>
       </c>
       <c r="E333" s="25">
-        <f>SUM(F333:F333)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F333" s="25">
@@ -10887,7 +10887,7 @@
         <v>651</v>
       </c>
       <c r="E334" s="25">
-        <f>SUM(F334:F334)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F334" s="25">
@@ -10903,7 +10903,7 @@
         <v>653</v>
       </c>
       <c r="E335" s="25">
-        <f>SUM(F335:F335)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F335" s="25">
@@ -10919,7 +10919,7 @@
         <v>655</v>
       </c>
       <c r="E336" s="25">
-        <f>SUM(F336:F336)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F336" s="25"/>
@@ -10933,7 +10933,7 @@
         <v>657</v>
       </c>
       <c r="E337" s="25">
-        <f>SUM(F337:F337)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F337" s="25">
@@ -10949,7 +10949,7 @@
         <v>659</v>
       </c>
       <c r="E338" s="25">
-        <f>SUM(F338:F338)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F338" s="25"/>
@@ -10963,7 +10963,7 @@
         <v>661</v>
       </c>
       <c r="E339" s="25">
-        <f>SUM(F339:F339)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F339" s="25"/>
@@ -10977,7 +10977,7 @@
         <v>663</v>
       </c>
       <c r="E340" s="25">
-        <f>SUM(F340:F340)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F340" s="25"/>
@@ -10991,7 +10991,7 @@
         <v>665</v>
       </c>
       <c r="E341" s="25">
-        <f>SUM(F341:F341)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F341" s="25">
@@ -11007,7 +11007,7 @@
         <v>667</v>
       </c>
       <c r="E342" s="25">
-        <f>SUM(F342:F342)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F342" s="25"/>
@@ -11021,7 +11021,7 @@
         <v>669</v>
       </c>
       <c r="E343" s="25">
-        <f>SUM(F343:F343)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F343" s="25"/>
@@ -11035,7 +11035,7 @@
         <v>671</v>
       </c>
       <c r="E344" s="25">
-        <f>SUM(F344:F344)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F344" s="25"/>
@@ -11049,7 +11049,7 @@
         <v>673</v>
       </c>
       <c r="E345" s="25">
-        <f>SUM(F345:F345)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F345" s="25">
@@ -11065,7 +11065,7 @@
         <v>675</v>
       </c>
       <c r="E346" s="25">
-        <f>SUM(F346:F346)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F346" s="25"/>
@@ -11079,7 +11079,7 @@
         <v>677</v>
       </c>
       <c r="E347" s="25">
-        <f>SUM(F347:F347)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F347" s="25"/>
@@ -11093,7 +11093,7 @@
         <v>679</v>
       </c>
       <c r="E348" s="25">
-        <f>SUM(F348:F348)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F348" s="25"/>
@@ -11107,7 +11107,7 @@
         <v>681</v>
       </c>
       <c r="E349" s="25">
-        <f>SUM(F349:F349)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F349" s="25"/>
@@ -11121,7 +11121,7 @@
         <v>683</v>
       </c>
       <c r="E350" s="25">
-        <f>SUM(F350:F350)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F350" s="25"/>
@@ -11135,7 +11135,7 @@
         <v>685</v>
       </c>
       <c r="E351" s="25">
-        <f>SUM(F351:F351)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F351" s="25">
@@ -11151,7 +11151,7 @@
         <v>687</v>
       </c>
       <c r="E352" s="25">
-        <f>SUM(F352:F352)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F352" s="25"/>
@@ -11165,7 +11165,7 @@
         <v>689</v>
       </c>
       <c r="E353" s="25">
-        <f>SUM(F353:F353)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F353" s="25"/>
@@ -11179,7 +11179,7 @@
         <v>691</v>
       </c>
       <c r="E354" s="25">
-        <f>SUM(F354:F354)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F354" s="25">
@@ -11195,7 +11195,7 @@
         <v>693</v>
       </c>
       <c r="E355" s="25">
-        <f>SUM(F355:F355)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F355" s="25"/>
@@ -11209,7 +11209,7 @@
         <v>695</v>
       </c>
       <c r="E356" s="25">
-        <f>SUM(F356:F356)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F356" s="25">
@@ -11225,7 +11225,7 @@
         <v>697</v>
       </c>
       <c r="E357" s="25">
-        <f>SUM(F357:F357)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F357" s="25"/>
@@ -11239,7 +11239,7 @@
         <v>699</v>
       </c>
       <c r="E358" s="25">
-        <f>SUM(F358:F358)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F358" s="25">
@@ -11255,7 +11255,7 @@
         <v>701</v>
       </c>
       <c r="E359" s="25">
-        <f>SUM(F359:F359)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F359" s="25">
@@ -11271,7 +11271,7 @@
         <v>703</v>
       </c>
       <c r="E360" s="25">
-        <f>SUM(F360:F360)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F360" s="25">
@@ -11287,7 +11287,7 @@
         <v>705</v>
       </c>
       <c r="E361" s="25">
-        <f>SUM(F361:F361)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F361" s="25"/>
@@ -11301,7 +11301,7 @@
         <v>707</v>
       </c>
       <c r="E362" s="25">
-        <f>SUM(F362:F362)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F362" s="25"/>
@@ -11315,7 +11315,7 @@
         <v>709</v>
       </c>
       <c r="E363" s="25">
-        <f>SUM(F363:F363)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F363" s="25">
@@ -11331,7 +11331,7 @@
         <v>711</v>
       </c>
       <c r="E364" s="25">
-        <f>SUM(F364:F364)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F364" s="25">
@@ -11347,7 +11347,7 @@
         <v>713</v>
       </c>
       <c r="E365" s="25">
-        <f>SUM(F365:F365)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F365" s="25"/>
@@ -11361,7 +11361,7 @@
         <v>715</v>
       </c>
       <c r="E366" s="25">
-        <f>SUM(F366:F366)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F366" s="25">
@@ -11377,7 +11377,7 @@
         <v>717</v>
       </c>
       <c r="E367" s="25">
-        <f>SUM(F367:F367)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F367" s="25">
@@ -11393,7 +11393,7 @@
         <v>719</v>
       </c>
       <c r="E368" s="25">
-        <f>SUM(F368:F368)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F368" s="25">
@@ -11409,7 +11409,7 @@
         <v>721</v>
       </c>
       <c r="E369" s="25">
-        <f>SUM(F369:F369)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F369" s="25"/>
@@ -11423,7 +11423,7 @@
         <v>723</v>
       </c>
       <c r="E370" s="25">
-        <f>SUM(F370:F370)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F370" s="25"/>
@@ -11437,7 +11437,7 @@
         <v>725</v>
       </c>
       <c r="E371" s="25">
-        <f>SUM(F371:F371)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F371" s="25">
@@ -11453,7 +11453,7 @@
         <v>727</v>
       </c>
       <c r="E372" s="25">
-        <f>SUM(F372:F372)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F372" s="25"/>
@@ -11467,7 +11467,7 @@
         <v>729</v>
       </c>
       <c r="E373" s="25">
-        <f>SUM(F373:F373)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F373" s="25"/>
@@ -11481,7 +11481,7 @@
         <v>731</v>
       </c>
       <c r="E374" s="25">
-        <f>SUM(F374:F374)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F374" s="25">
@@ -11497,7 +11497,7 @@
         <v>733</v>
       </c>
       <c r="E375" s="25">
-        <f>SUM(F375:F375)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F375" s="25">
@@ -11513,7 +11513,7 @@
         <v>735</v>
       </c>
       <c r="E376" s="25">
-        <f>SUM(F376:F376)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F376" s="25">
@@ -11529,7 +11529,7 @@
         <v>737</v>
       </c>
       <c r="E377" s="25">
-        <f>SUM(F377:F377)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F377" s="25"/>
@@ -11543,7 +11543,7 @@
         <v>739</v>
       </c>
       <c r="E378" s="25">
-        <f>SUM(F378:F378)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F378" s="25">
@@ -11559,7 +11559,7 @@
         <v>741</v>
       </c>
       <c r="E379" s="25">
-        <f>SUM(F379:F379)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F379" s="25">
@@ -11575,7 +11575,7 @@
         <v>743</v>
       </c>
       <c r="E380" s="25">
-        <f>SUM(F380:F380)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F380" s="25"/>
@@ -11589,7 +11589,7 @@
         <v>745</v>
       </c>
       <c r="E381" s="25">
-        <f>SUM(F381:F381)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F381" s="25">
@@ -11605,7 +11605,7 @@
         <v>747</v>
       </c>
       <c r="E382" s="25">
-        <f>SUM(F382:F382)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F382" s="25">
@@ -11621,7 +11621,7 @@
         <v>749</v>
       </c>
       <c r="E383" s="25">
-        <f>SUM(F383:F383)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F383" s="25"/>
@@ -11635,7 +11635,7 @@
         <v>751</v>
       </c>
       <c r="E384" s="25">
-        <f>SUM(F384:F384)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F384" s="25"/>
@@ -11649,7 +11649,7 @@
         <v>753</v>
       </c>
       <c r="E385" s="25">
-        <f>SUM(F385:F385)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F385" s="25">
@@ -11665,7 +11665,7 @@
         <v>755</v>
       </c>
       <c r="E386" s="25">
-        <f>SUM(F386:F386)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F386" s="25"/>
@@ -11679,7 +11679,7 @@
         <v>757</v>
       </c>
       <c r="E387" s="25">
-        <f>SUM(F387:F387)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F387" s="25">
@@ -11695,7 +11695,7 @@
         <v>759</v>
       </c>
       <c r="E388" s="25">
-        <f>SUM(F388:F388)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F388" s="25"/>
@@ -11709,7 +11709,7 @@
         <v>761</v>
       </c>
       <c r="E389" s="25">
-        <f>SUM(F389:F389)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F389" s="25"/>
@@ -11723,7 +11723,7 @@
         <v>763</v>
       </c>
       <c r="E390" s="25">
-        <f>SUM(F390:F390)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F390" s="25"/>
@@ -11737,7 +11737,7 @@
         <v>765</v>
       </c>
       <c r="E391" s="25">
-        <f>SUM(F391:F391)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F391" s="25">
@@ -11753,7 +11753,7 @@
         <v>767</v>
       </c>
       <c r="E392" s="25">
-        <f>SUM(F392:F392)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F392" s="25"/>
@@ -11767,7 +11767,7 @@
         <v>769</v>
       </c>
       <c r="E393" s="25">
-        <f>SUM(F393:F393)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F393" s="25"/>
@@ -11781,7 +11781,7 @@
         <v>771</v>
       </c>
       <c r="E394" s="25">
-        <f>SUM(F394:F394)</f>
+        <f t="shared" ref="E394:E457" si="6">SUM(F394:F394)</f>
         <v>1</v>
       </c>
       <c r="F394" s="25">
@@ -11797,7 +11797,7 @@
         <v>773</v>
       </c>
       <c r="E395" s="25">
-        <f>SUM(F395:F395)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F395" s="25"/>
@@ -11811,7 +11811,7 @@
         <v>775</v>
       </c>
       <c r="E396" s="25">
-        <f>SUM(F396:F396)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F396" s="25"/>
@@ -11825,7 +11825,7 @@
         <v>777</v>
       </c>
       <c r="E397" s="25">
-        <f>SUM(F397:F397)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F397" s="25">
@@ -11841,7 +11841,7 @@
         <v>779</v>
       </c>
       <c r="E398" s="25">
-        <f>SUM(F398:F398)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F398" s="25"/>
@@ -11855,7 +11855,7 @@
         <v>781</v>
       </c>
       <c r="E399" s="25">
-        <f>SUM(F399:F399)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F399" s="25">
@@ -11871,7 +11871,7 @@
         <v>783</v>
       </c>
       <c r="E400" s="25">
-        <f>SUM(F400:F400)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F400" s="25"/>
@@ -11885,7 +11885,7 @@
         <v>785</v>
       </c>
       <c r="E401" s="25">
-        <f>SUM(F401:F401)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F401" s="25"/>
@@ -11899,7 +11899,7 @@
         <v>787</v>
       </c>
       <c r="E402" s="25">
-        <f>SUM(F402:F402)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F402" s="25"/>
@@ -11913,7 +11913,7 @@
         <v>789</v>
       </c>
       <c r="E403" s="25">
-        <f>SUM(F403:F403)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F403" s="25"/>
@@ -11927,7 +11927,7 @@
         <v>791</v>
       </c>
       <c r="E404" s="25">
-        <f>SUM(F404:F404)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F404" s="25"/>
@@ -11941,7 +11941,7 @@
         <v>793</v>
       </c>
       <c r="E405" s="25">
-        <f>SUM(F405:F405)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F405" s="25"/>
@@ -11952,7 +11952,7 @@
         <v>794</v>
       </c>
       <c r="E406" s="25">
-        <f>SUM(F406:F406)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F406" s="25"/>
@@ -11966,7 +11966,7 @@
         <v>796</v>
       </c>
       <c r="E407" s="25">
-        <f>SUM(F407:F407)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F407" s="25"/>
@@ -11980,7 +11980,7 @@
         <v>798</v>
       </c>
       <c r="E408" s="25">
-        <f>SUM(F408:F408)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F408" s="25">
@@ -11996,7 +11996,7 @@
         <v>800</v>
       </c>
       <c r="E409" s="25">
-        <f>SUM(F409:F409)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F409" s="25"/>
@@ -12010,7 +12010,7 @@
         <v>802</v>
       </c>
       <c r="E410" s="25">
-        <f>SUM(F410:F410)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F410" s="25"/>
@@ -12024,7 +12024,7 @@
         <v>804</v>
       </c>
       <c r="E411" s="25">
-        <f>SUM(F411:F411)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F411" s="25">
@@ -12040,7 +12040,7 @@
         <v>806</v>
       </c>
       <c r="E412" s="25">
-        <f>SUM(F412:F412)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F412" s="25"/>
@@ -12054,7 +12054,7 @@
         <v>808</v>
       </c>
       <c r="E413" s="25">
-        <f>SUM(F413:F413)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F413" s="25">
@@ -12070,7 +12070,7 @@
         <v>810</v>
       </c>
       <c r="E414" s="25">
-        <f>SUM(F414:F414)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F414" s="25">
@@ -12086,7 +12086,7 @@
         <v>812</v>
       </c>
       <c r="E415" s="25">
-        <f>SUM(F415:F415)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F415" s="25">
@@ -12102,7 +12102,7 @@
         <v>814</v>
       </c>
       <c r="E416" s="25">
-        <f>SUM(F416:F416)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F416" s="25">
@@ -12118,7 +12118,7 @@
         <v>816</v>
       </c>
       <c r="E417" s="25">
-        <f>SUM(F417:F417)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F417" s="25"/>
@@ -12132,7 +12132,7 @@
         <v>818</v>
       </c>
       <c r="E418" s="25">
-        <f>SUM(F418:F418)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F418" s="25"/>
@@ -12146,7 +12146,7 @@
         <v>820</v>
       </c>
       <c r="E419" s="25">
-        <f>SUM(F419:F419)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F419" s="25">
@@ -12162,7 +12162,7 @@
         <v>822</v>
       </c>
       <c r="E420" s="25">
-        <f>SUM(F420:F420)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F420" s="25">
@@ -12178,7 +12178,7 @@
         <v>824</v>
       </c>
       <c r="E421" s="25">
-        <f>SUM(F421:F421)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F421" s="25">
@@ -12194,7 +12194,7 @@
         <v>826</v>
       </c>
       <c r="E422" s="25">
-        <f>SUM(F422:F422)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F422" s="25">
@@ -12210,7 +12210,7 @@
         <v>828</v>
       </c>
       <c r="E423" s="25">
-        <f>SUM(F423:F423)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F423" s="25">
@@ -12226,7 +12226,7 @@
         <v>830</v>
       </c>
       <c r="E424" s="25">
-        <f>SUM(F424:F424)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F424" s="25">
@@ -12242,7 +12242,7 @@
         <v>832</v>
       </c>
       <c r="E425" s="25">
-        <f>SUM(F425:F425)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F425" s="25">
@@ -12258,7 +12258,7 @@
         <v>834</v>
       </c>
       <c r="E426" s="25">
-        <f>SUM(F426:F426)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F426" s="25"/>
@@ -12272,7 +12272,7 @@
         <v>836</v>
       </c>
       <c r="E427" s="25">
-        <f>SUM(F427:F427)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F427" s="25"/>
@@ -12286,7 +12286,7 @@
         <v>838</v>
       </c>
       <c r="E428" s="25">
-        <f>SUM(F428:F428)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F428" s="25">
@@ -12302,7 +12302,7 @@
         <v>840</v>
       </c>
       <c r="E429" s="25">
-        <f>SUM(F429:F429)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F429" s="25"/>
@@ -12316,7 +12316,7 @@
         <v>842</v>
       </c>
       <c r="E430" s="25">
-        <f>SUM(F430:F430)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F430" s="25"/>
@@ -12330,7 +12330,7 @@
         <v>844</v>
       </c>
       <c r="E431" s="25">
-        <f>SUM(F431:F431)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F431" s="25">
@@ -12346,7 +12346,7 @@
         <v>846</v>
       </c>
       <c r="E432" s="25">
-        <f>SUM(F432:F432)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F432" s="25"/>
@@ -12360,7 +12360,7 @@
         <v>848</v>
       </c>
       <c r="E433" s="25">
-        <f>SUM(F433:F433)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F433" s="25"/>
@@ -12374,7 +12374,7 @@
         <v>850</v>
       </c>
       <c r="E434" s="25">
-        <f>SUM(F434:F434)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F434" s="25">
@@ -12390,7 +12390,7 @@
         <v>852</v>
       </c>
       <c r="E435" s="25">
-        <f>SUM(F435:F435)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F435" s="25"/>
@@ -12404,7 +12404,7 @@
         <v>854</v>
       </c>
       <c r="E436" s="25">
-        <f>SUM(F436:F436)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F436" s="25">
@@ -12420,7 +12420,7 @@
         <v>856</v>
       </c>
       <c r="E437" s="25">
-        <f>SUM(F437:F437)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F437" s="25"/>
@@ -12434,7 +12434,7 @@
         <v>858</v>
       </c>
       <c r="E438" s="25">
-        <f>SUM(F438:F438)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F438" s="25">
@@ -12450,7 +12450,7 @@
         <v>860</v>
       </c>
       <c r="E439" s="25">
-        <f>SUM(F439:F439)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F439" s="25"/>
@@ -12464,7 +12464,7 @@
         <v>862</v>
       </c>
       <c r="E440" s="25">
-        <f>SUM(F440:F440)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F440" s="25"/>
@@ -12478,7 +12478,7 @@
         <v>864</v>
       </c>
       <c r="E441" s="25">
-        <f>SUM(F441:F441)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F441" s="25">
@@ -12494,7 +12494,7 @@
         <v>866</v>
       </c>
       <c r="E442" s="25">
-        <f>SUM(F442:F442)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F442" s="25"/>
@@ -12508,7 +12508,7 @@
         <v>868</v>
       </c>
       <c r="E443" s="25">
-        <f>SUM(F443:F443)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F443" s="25">
@@ -12524,7 +12524,7 @@
         <v>870</v>
       </c>
       <c r="E444" s="25">
-        <f>SUM(F444:F444)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F444" s="25"/>
@@ -12538,7 +12538,7 @@
         <v>872</v>
       </c>
       <c r="E445" s="25">
-        <f>SUM(F445:F445)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F445" s="25"/>
@@ -12552,7 +12552,7 @@
         <v>874</v>
       </c>
       <c r="E446" s="25">
-        <f>SUM(F446:F446)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F446" s="25"/>
@@ -12566,7 +12566,7 @@
         <v>876</v>
       </c>
       <c r="E447" s="25">
-        <f>SUM(F447:F447)</f>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="F447" s="25">
@@ -12582,7 +12582,7 @@
         <v>878</v>
       </c>
       <c r="E448" s="25">
-        <f>SUM(F448:F448)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F448" s="25"/>
@@ -12596,7 +12596,7 @@
         <v>880</v>
       </c>
       <c r="E449" s="25">
-        <f>SUM(F449:F449)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F449" s="25"/>
@@ -12610,7 +12610,7 @@
         <v>882</v>
       </c>
       <c r="E450" s="25">
-        <f>SUM(F450:F450)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F450" s="25"/>
@@ -12624,7 +12624,7 @@
         <v>884</v>
       </c>
       <c r="E451" s="25">
-        <f>SUM(F451:F451)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F451" s="25"/>
@@ -12638,7 +12638,7 @@
         <v>886</v>
       </c>
       <c r="E452" s="25">
-        <f>SUM(F452:F452)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F452" s="25"/>
@@ -12652,7 +12652,7 @@
         <v>888</v>
       </c>
       <c r="E453" s="25">
-        <f>SUM(F453:F453)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F453" s="25"/>
@@ -12666,7 +12666,7 @@
         <v>890</v>
       </c>
       <c r="E454" s="25">
-        <f>SUM(F454:F454)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F454" s="25">
@@ -12682,7 +12682,7 @@
         <v>892</v>
       </c>
       <c r="E455" s="25">
-        <f>SUM(F455:F455)</f>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="F455" s="25">
@@ -12698,7 +12698,7 @@
         <v>894</v>
       </c>
       <c r="E456" s="25">
-        <f>SUM(F456:F456)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F456" s="25"/>
@@ -12712,7 +12712,7 @@
         <v>896</v>
       </c>
       <c r="E457" s="25">
-        <f>SUM(F457:F457)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F457" s="25"/>
@@ -12726,7 +12726,7 @@
         <v>898</v>
       </c>
       <c r="E458" s="25">
-        <f>SUM(F458:F458)</f>
+        <f t="shared" ref="E458:E521" si="7">SUM(F458:F458)</f>
         <v>0</v>
       </c>
       <c r="F458" s="25"/>
@@ -12740,7 +12740,7 @@
         <v>900</v>
       </c>
       <c r="E459" s="25">
-        <f>SUM(F459:F459)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F459" s="25">
@@ -12756,7 +12756,7 @@
         <v>902</v>
       </c>
       <c r="E460" s="25">
-        <f>SUM(F460:F460)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F460" s="25">
@@ -12772,7 +12772,7 @@
         <v>904</v>
       </c>
       <c r="E461" s="25">
-        <f>SUM(F461:F461)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F461" s="25"/>
@@ -12786,7 +12786,7 @@
         <v>906</v>
       </c>
       <c r="E462" s="25">
-        <f>SUM(F462:F462)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F462" s="25"/>
@@ -12800,7 +12800,7 @@
         <v>908</v>
       </c>
       <c r="E463" s="25">
-        <f>SUM(F463:F463)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F463" s="25"/>
@@ -12814,7 +12814,7 @@
         <v>910</v>
       </c>
       <c r="E464" s="25">
-        <f>SUM(F464:F464)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F464" s="25"/>
@@ -12828,7 +12828,7 @@
         <v>912</v>
       </c>
       <c r="E465" s="25">
-        <f>SUM(F465:F465)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F465" s="25">
@@ -12844,7 +12844,7 @@
         <v>914</v>
       </c>
       <c r="E466" s="25">
-        <f>SUM(F466:F466)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F466" s="25"/>
@@ -12858,7 +12858,7 @@
         <v>916</v>
       </c>
       <c r="E467" s="25">
-        <f>SUM(F467:F467)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F467" s="25"/>
@@ -12872,7 +12872,7 @@
         <v>918</v>
       </c>
       <c r="E468" s="25">
-        <f>SUM(F468:F468)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F468" s="25">
@@ -12888,7 +12888,7 @@
         <v>920</v>
       </c>
       <c r="E469" s="25">
-        <f>SUM(F469:F469)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F469" s="25"/>
@@ -12902,7 +12902,7 @@
         <v>922</v>
       </c>
       <c r="E470" s="25">
-        <f>SUM(F470:F470)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F470" s="25"/>
@@ -12916,7 +12916,7 @@
         <v>924</v>
       </c>
       <c r="E471" s="25">
-        <f>SUM(F471:F471)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F471" s="25"/>
@@ -12930,7 +12930,7 @@
         <v>926</v>
       </c>
       <c r="E472" s="25">
-        <f>SUM(F472:F472)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F472" s="25">
@@ -12946,7 +12946,7 @@
         <v>928</v>
       </c>
       <c r="E473" s="25">
-        <f>SUM(F473:F473)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F473" s="25"/>
@@ -12960,7 +12960,7 @@
         <v>930</v>
       </c>
       <c r="E474" s="25">
-        <f>SUM(F474:F474)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F474" s="25"/>
@@ -12974,7 +12974,7 @@
         <v>932</v>
       </c>
       <c r="E475" s="25">
-        <f>SUM(F475:F475)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F475" s="25"/>
@@ -12988,7 +12988,7 @@
         <v>934</v>
       </c>
       <c r="E476" s="25">
-        <f>SUM(F476:F476)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F476" s="25"/>
@@ -13002,7 +13002,7 @@
         <v>936</v>
       </c>
       <c r="E477" s="25">
-        <f>SUM(F477:F477)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F477" s="25">
@@ -13018,7 +13018,7 @@
         <v>938</v>
       </c>
       <c r="E478" s="25">
-        <f>SUM(F478:F478)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F478" s="25"/>
@@ -13032,7 +13032,7 @@
         <v>940</v>
       </c>
       <c r="E479" s="25">
-        <f>SUM(F479:F479)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F479" s="25"/>
@@ -13046,7 +13046,7 @@
         <v>942</v>
       </c>
       <c r="E480" s="25">
-        <f>SUM(F480:F480)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F480" s="25">
@@ -13062,7 +13062,7 @@
         <v>944</v>
       </c>
       <c r="E481" s="25">
-        <f>SUM(F481:F481)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F481" s="25">
@@ -13078,7 +13078,7 @@
         <v>946</v>
       </c>
       <c r="E482" s="25">
-        <f>SUM(F482:F482)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F482" s="25"/>
@@ -13092,7 +13092,7 @@
         <v>948</v>
       </c>
       <c r="E483" s="25">
-        <f>SUM(F483:F483)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F483" s="25"/>
@@ -13106,7 +13106,7 @@
         <v>950</v>
       </c>
       <c r="E484" s="25">
-        <f>SUM(F484:F484)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F484" s="25">
@@ -13122,7 +13122,7 @@
         <v>952</v>
       </c>
       <c r="E485" s="25">
-        <f>SUM(F485:F485)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F485" s="25"/>
@@ -13136,7 +13136,7 @@
         <v>954</v>
       </c>
       <c r="E486" s="25">
-        <f>SUM(F486:F486)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F486" s="25"/>
@@ -13150,7 +13150,7 @@
         <v>956</v>
       </c>
       <c r="E487" s="25">
-        <f>SUM(F487:F487)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F487" s="25"/>
@@ -13164,7 +13164,7 @@
         <v>958</v>
       </c>
       <c r="E488" s="25">
-        <f>SUM(F488:F488)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F488" s="25"/>
@@ -13178,7 +13178,7 @@
         <v>960</v>
       </c>
       <c r="E489" s="25">
-        <f>SUM(F489:F489)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F489" s="25"/>
@@ -13192,7 +13192,7 @@
         <v>962</v>
       </c>
       <c r="E490" s="25">
-        <f>SUM(F490:F490)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F490" s="25"/>
@@ -13206,7 +13206,7 @@
         <v>964</v>
       </c>
       <c r="E491" s="25">
-        <f>SUM(F491:F491)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F491" s="25">
@@ -13222,7 +13222,7 @@
         <v>966</v>
       </c>
       <c r="E492" s="25">
-        <f>SUM(F492:F492)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F492" s="25">
@@ -13238,7 +13238,7 @@
         <v>968</v>
       </c>
       <c r="E493" s="25">
-        <f>SUM(F493:F493)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F493" s="25">
@@ -13254,7 +13254,7 @@
         <v>970</v>
       </c>
       <c r="E494" s="25">
-        <f>SUM(F494:F494)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F494" s="25">
@@ -13270,7 +13270,7 @@
         <v>972</v>
       </c>
       <c r="E495" s="25">
-        <f>SUM(F495:F495)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F495" s="25"/>
@@ -13284,7 +13284,7 @@
         <v>974</v>
       </c>
       <c r="E496" s="25">
-        <f>SUM(F496:F496)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F496" s="25"/>
@@ -13298,7 +13298,7 @@
         <v>976</v>
       </c>
       <c r="E497" s="25">
-        <f>SUM(F497:F497)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F497" s="25">
@@ -13314,7 +13314,7 @@
         <v>978</v>
       </c>
       <c r="E498" s="25">
-        <f>SUM(F498:F498)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F498" s="25"/>
@@ -13328,7 +13328,7 @@
         <v>980</v>
       </c>
       <c r="E499" s="25">
-        <f>SUM(F499:F499)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F499" s="25">
@@ -13344,7 +13344,7 @@
         <v>982</v>
       </c>
       <c r="E500" s="25">
-        <f>SUM(F500:F500)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F500" s="25">
@@ -13360,7 +13360,7 @@
         <v>984</v>
       </c>
       <c r="E501" s="25">
-        <f>SUM(F501:F501)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F501" s="25"/>
@@ -13374,7 +13374,7 @@
         <v>986</v>
       </c>
       <c r="E502" s="25">
-        <f>SUM(F502:F502)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F502" s="25"/>
@@ -13388,7 +13388,7 @@
         <v>988</v>
       </c>
       <c r="E503" s="25">
-        <f>SUM(F503:F503)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F503" s="25"/>
@@ -13402,7 +13402,7 @@
         <v>990</v>
       </c>
       <c r="E504" s="25">
-        <f>SUM(F504:F504)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F504" s="25">
@@ -13418,7 +13418,7 @@
         <v>992</v>
       </c>
       <c r="E505" s="25">
-        <f>SUM(F505:F505)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F505" s="25"/>
@@ -13432,7 +13432,7 @@
         <v>994</v>
       </c>
       <c r="E506" s="25">
-        <f>SUM(F506:F506)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F506" s="25"/>
@@ -13446,7 +13446,7 @@
         <v>996</v>
       </c>
       <c r="E507" s="25">
-        <f>SUM(F507:F507)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F507" s="25">
@@ -13462,7 +13462,7 @@
         <v>998</v>
       </c>
       <c r="E508" s="25">
-        <f>SUM(F508:F508)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F508" s="25"/>
@@ -13476,7 +13476,7 @@
         <v>1000</v>
       </c>
       <c r="E509" s="25">
-        <f>SUM(F509:F509)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F509" s="25"/>
@@ -13490,7 +13490,7 @@
         <v>1002</v>
       </c>
       <c r="E510" s="25">
-        <f>SUM(F510:F510)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F510" s="25"/>
@@ -13504,7 +13504,7 @@
         <v>1004</v>
       </c>
       <c r="E511" s="25">
-        <f>SUM(F511:F511)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F511" s="25">
@@ -13520,7 +13520,7 @@
         <v>1006</v>
       </c>
       <c r="E512" s="25">
-        <f>SUM(F512:F512)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F512" s="25">
@@ -13536,7 +13536,7 @@
         <v>1008</v>
       </c>
       <c r="E513" s="25">
-        <f>SUM(F513:F513)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F513" s="25"/>
@@ -13550,7 +13550,7 @@
         <v>1010</v>
       </c>
       <c r="E514" s="25">
-        <f>SUM(F514:F514)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F514" s="25"/>
@@ -13564,7 +13564,7 @@
         <v>1012</v>
       </c>
       <c r="E515" s="25">
-        <f>SUM(F515:F515)</f>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="F515" s="25">
@@ -13580,7 +13580,7 @@
         <v>1014</v>
       </c>
       <c r="E516" s="25">
-        <f>SUM(F516:F516)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F516" s="25"/>
@@ -13594,7 +13594,7 @@
         <v>1016</v>
       </c>
       <c r="E517" s="25">
-        <f>SUM(F517:F517)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F517" s="25"/>
@@ -13608,7 +13608,7 @@
         <v>1018</v>
       </c>
       <c r="E518" s="25">
-        <f>SUM(F518:F518)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F518" s="25">
@@ -13624,7 +13624,7 @@
         <v>1020</v>
       </c>
       <c r="E519" s="25">
-        <f>SUM(F519:F519)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F519" s="25"/>
@@ -13638,7 +13638,7 @@
         <v>1022</v>
       </c>
       <c r="E520" s="25">
-        <f>SUM(F520:F520)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="F520" s="25">
@@ -13654,7 +13654,7 @@
         <v>1024</v>
       </c>
       <c r="E521" s="25">
-        <f>SUM(F521:F521)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F521" s="25"/>
@@ -13668,7 +13668,7 @@
         <v>1026</v>
       </c>
       <c r="E522" s="25">
-        <f>SUM(F522:F522)</f>
+        <f t="shared" ref="E522:E585" si="8">SUM(F522:F522)</f>
         <v>0</v>
       </c>
       <c r="F522" s="25"/>
@@ -13682,7 +13682,7 @@
         <v>1028</v>
       </c>
       <c r="E523" s="25">
-        <f>SUM(F523:F523)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F523" s="25"/>
@@ -13696,7 +13696,7 @@
         <v>1030</v>
       </c>
       <c r="E524" s="25">
-        <f>SUM(F524:F524)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F524" s="25"/>
@@ -13710,7 +13710,7 @@
         <v>1032</v>
       </c>
       <c r="E525" s="25">
-        <f>SUM(F525:F525)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F525" s="25"/>
@@ -13724,7 +13724,7 @@
         <v>1034</v>
       </c>
       <c r="E526" s="25">
-        <f>SUM(F526:F526)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F526" s="25"/>
@@ -13738,7 +13738,7 @@
         <v>1036</v>
       </c>
       <c r="E527" s="25">
-        <f>SUM(F527:F527)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F527" s="25">
@@ -13754,7 +13754,7 @@
         <v>1038</v>
       </c>
       <c r="E528" s="25">
-        <f>SUM(F528:F528)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F528" s="25"/>
@@ -13768,7 +13768,7 @@
         <v>1040</v>
       </c>
       <c r="E529" s="25">
-        <f>SUM(F529:F529)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F529" s="25">
@@ -13784,7 +13784,7 @@
         <v>1042</v>
       </c>
       <c r="E530" s="25">
-        <f>SUM(F530:F530)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F530" s="25"/>
@@ -13798,7 +13798,7 @@
         <v>1044</v>
       </c>
       <c r="E531" s="25">
-        <f>SUM(F531:F531)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F531" s="25">
@@ -13814,7 +13814,7 @@
         <v>1046</v>
       </c>
       <c r="E532" s="25">
-        <f>SUM(F532:F532)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F532" s="25">
@@ -13830,7 +13830,7 @@
         <v>1048</v>
       </c>
       <c r="E533" s="25">
-        <f>SUM(F533:F533)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F533" s="25">
@@ -13846,7 +13846,7 @@
         <v>1050</v>
       </c>
       <c r="E534" s="25">
-        <f>SUM(F534:F534)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F534" s="25">
@@ -13862,7 +13862,7 @@
         <v>1052</v>
       </c>
       <c r="E535" s="25">
-        <f>SUM(F535:F535)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F535" s="25"/>
@@ -13876,7 +13876,7 @@
         <v>1054</v>
       </c>
       <c r="E536" s="25">
-        <f>SUM(F536:F536)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F536" s="25">
@@ -13892,7 +13892,7 @@
         <v>1056</v>
       </c>
       <c r="E537" s="25">
-        <f>SUM(F537:F537)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F537" s="25">
@@ -13908,7 +13908,7 @@
         <v>1058</v>
       </c>
       <c r="E538" s="25">
-        <f>SUM(F538:F538)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F538" s="25"/>
@@ -13922,7 +13922,7 @@
         <v>1060</v>
       </c>
       <c r="E539" s="25">
-        <f>SUM(F539:F539)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F539" s="25"/>
@@ -13936,7 +13936,7 @@
         <v>1062</v>
       </c>
       <c r="E540" s="25">
-        <f>SUM(F540:F540)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F540" s="25"/>
@@ -13950,7 +13950,7 @@
         <v>1064</v>
       </c>
       <c r="E541" s="25">
-        <f>SUM(F541:F541)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F541" s="25"/>
@@ -13964,7 +13964,7 @@
         <v>1066</v>
       </c>
       <c r="E542" s="25">
-        <f>SUM(F542:F542)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F542" s="25"/>
@@ -13978,7 +13978,7 @@
         <v>1068</v>
       </c>
       <c r="E543" s="25">
-        <f>SUM(F543:F543)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F543" s="25"/>
@@ -13992,7 +13992,7 @@
         <v>1070</v>
       </c>
       <c r="E544" s="25">
-        <f>SUM(F544:F544)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F544" s="25">
@@ -14008,7 +14008,7 @@
         <v>1072</v>
       </c>
       <c r="E545" s="25">
-        <f>SUM(F545:F545)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F545" s="25">
@@ -14024,7 +14024,7 @@
         <v>1074</v>
       </c>
       <c r="E546" s="25">
-        <f>SUM(F546:F546)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F546" s="25"/>
@@ -14038,7 +14038,7 @@
         <v>1076</v>
       </c>
       <c r="E547" s="25">
-        <f>SUM(F547:F547)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F547" s="25"/>
@@ -14052,7 +14052,7 @@
         <v>1078</v>
       </c>
       <c r="E548" s="25">
-        <f>SUM(F548:F548)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F548" s="25"/>
@@ -14066,7 +14066,7 @@
         <v>1080</v>
       </c>
       <c r="E549" s="25">
-        <f>SUM(F549:F549)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F549" s="25">
@@ -14082,7 +14082,7 @@
         <v>1082</v>
       </c>
       <c r="E550" s="25">
-        <f>SUM(F550:F550)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F550" s="25"/>
@@ -14096,7 +14096,7 @@
         <v>1084</v>
       </c>
       <c r="E551" s="25">
-        <f>SUM(F551:F551)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F551" s="25"/>
@@ -14110,7 +14110,7 @@
         <v>1086</v>
       </c>
       <c r="E552" s="25">
-        <f>SUM(F552:F552)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F552" s="25"/>
@@ -14124,7 +14124,7 @@
         <v>1088</v>
       </c>
       <c r="E553" s="25">
-        <f>SUM(F553:F553)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F553" s="25"/>
@@ -14138,7 +14138,7 @@
         <v>1088</v>
       </c>
       <c r="E554" s="25">
-        <f>SUM(F554:F554)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F554" s="25"/>
@@ -14152,7 +14152,7 @@
         <v>1078</v>
       </c>
       <c r="E555" s="25">
-        <f>SUM(F555:F555)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F555" s="25"/>
@@ -14166,7 +14166,7 @@
         <v>1092</v>
       </c>
       <c r="E556" s="25">
-        <f>SUM(F556:F556)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F556" s="25"/>
@@ -14180,7 +14180,7 @@
         <v>1094</v>
       </c>
       <c r="E557" s="25">
-        <f>SUM(F557:F557)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F557" s="25">
@@ -14196,7 +14196,7 @@
         <v>1096</v>
       </c>
       <c r="E558" s="25">
-        <f>SUM(F558:F558)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F558" s="25"/>
@@ -14210,7 +14210,7 @@
         <v>1098</v>
       </c>
       <c r="E559" s="25">
-        <f>SUM(F559:F559)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F559" s="25"/>
@@ -14224,7 +14224,7 @@
         <v>1100</v>
       </c>
       <c r="E560" s="25">
-        <f>SUM(F560:F560)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F560" s="25">
@@ -14240,7 +14240,7 @@
         <v>1102</v>
       </c>
       <c r="E561" s="25">
-        <f>SUM(F561:F561)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F561" s="25">
@@ -14256,7 +14256,7 @@
         <v>1104</v>
       </c>
       <c r="E562" s="25">
-        <f>SUM(F562:F562)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F562" s="25">
@@ -14272,7 +14272,7 @@
         <v>1106</v>
       </c>
       <c r="E563" s="25">
-        <f>SUM(F563:F563)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F563" s="25">
@@ -14288,7 +14288,7 @@
         <v>1108</v>
       </c>
       <c r="E564" s="25">
-        <f>SUM(F564:F564)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F564" s="25"/>
@@ -14302,7 +14302,7 @@
         <v>1110</v>
       </c>
       <c r="E565" s="25">
-        <f>SUM(F565:F565)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F565" s="25"/>
@@ -14316,7 +14316,7 @@
         <v>1112</v>
       </c>
       <c r="E566" s="25">
-        <f>SUM(F566:F566)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F566" s="25">
@@ -14332,7 +14332,7 @@
         <v>1114</v>
       </c>
       <c r="E567" s="25">
-        <f>SUM(F567:F567)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F567" s="25"/>
@@ -14346,7 +14346,7 @@
         <v>1116</v>
       </c>
       <c r="E568" s="25">
-        <f>SUM(F568:F568)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F568" s="25"/>
@@ -14360,7 +14360,7 @@
         <v>1118</v>
       </c>
       <c r="E569" s="25">
-        <f>SUM(F569:F569)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F569" s="25"/>
@@ -14374,7 +14374,7 @@
         <v>1120</v>
       </c>
       <c r="E570" s="25">
-        <f>SUM(F570:F570)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F570" s="25">
@@ -14390,7 +14390,7 @@
         <v>1122</v>
       </c>
       <c r="E571" s="25">
-        <f>SUM(F571:F571)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F571" s="25"/>
@@ -14404,7 +14404,7 @@
         <v>1124</v>
       </c>
       <c r="E572" s="25">
-        <f>SUM(F572:F572)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F572" s="25">
@@ -14420,7 +14420,7 @@
         <v>1126</v>
       </c>
       <c r="E573" s="25">
-        <f>SUM(F573:F573)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F573" s="25"/>
@@ -14434,7 +14434,7 @@
         <v>1128</v>
       </c>
       <c r="E574" s="25">
-        <f>SUM(F574:F574)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="F574" s="25">
@@ -14450,7 +14450,7 @@
         <v>1120</v>
       </c>
       <c r="E575" s="25">
-        <f>SUM(F575:F575)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F575" s="25"/>
@@ -14464,7 +14464,7 @@
         <v>1131</v>
       </c>
       <c r="E576" s="25">
-        <f>SUM(F576:F576)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F576" s="25"/>
@@ -14478,7 +14478,7 @@
         <v>1133</v>
       </c>
       <c r="E577" s="25">
-        <f>SUM(F577:F577)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F577" s="25">
@@ -14494,7 +14494,7 @@
         <v>1135</v>
       </c>
       <c r="E578" s="25">
-        <f>SUM(F578:F578)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F578" s="25"/>
@@ -14508,7 +14508,7 @@
         <v>1137</v>
       </c>
       <c r="E579" s="25">
-        <f>SUM(F579:F579)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F579" s="25"/>
@@ -14522,7 +14522,7 @@
         <v>1139</v>
       </c>
       <c r="E580" s="25">
-        <f>SUM(F580:F580)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F580" s="25"/>
@@ -14536,7 +14536,7 @@
         <v>1141</v>
       </c>
       <c r="E581" s="25">
-        <f>SUM(F581:F581)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F581" s="25"/>
@@ -14550,7 +14550,7 @@
         <v>1143</v>
       </c>
       <c r="E582" s="25">
-        <f>SUM(F582:F582)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F582" s="25"/>
@@ -14564,7 +14564,7 @@
         <v>1145</v>
       </c>
       <c r="E583" s="25">
-        <f>SUM(F583:F583)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F583" s="25"/>
@@ -14578,7 +14578,7 @@
         <v>1066</v>
       </c>
       <c r="E584" s="25">
-        <f>SUM(F584:F584)</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="F584" s="25">
@@ -14594,7 +14594,7 @@
         <v>1135</v>
       </c>
       <c r="E585" s="25">
-        <f>SUM(F585:F585)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F585" s="25"/>
@@ -14608,7 +14608,7 @@
         <v>1149</v>
       </c>
       <c r="E586" s="25">
-        <f>SUM(F586:F586)</f>
+        <f t="shared" ref="E586:E649" si="9">SUM(F586:F586)</f>
         <v>2</v>
       </c>
       <c r="F586" s="25">
@@ -14624,7 +14624,7 @@
         <v>1151</v>
       </c>
       <c r="E587" s="25">
-        <f>SUM(F587:F587)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F587" s="25"/>
@@ -14638,7 +14638,7 @@
         <v>1153</v>
       </c>
       <c r="E588" s="25">
-        <f>SUM(F588:F588)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F588" s="25">
@@ -14654,7 +14654,7 @@
         <v>1155</v>
       </c>
       <c r="E589" s="25">
-        <f>SUM(F589:F589)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F589" s="25"/>
@@ -14668,7 +14668,7 @@
         <v>1157</v>
       </c>
       <c r="E590" s="25">
-        <f>SUM(F590:F590)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F590" s="25"/>
@@ -14682,7 +14682,7 @@
         <v>1159</v>
       </c>
       <c r="E591" s="25">
-        <f>SUM(F591:F591)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F591" s="25">
@@ -14698,7 +14698,7 @@
         <v>1161</v>
       </c>
       <c r="E592" s="25">
-        <f>SUM(F592:F592)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F592" s="25">
@@ -14714,7 +14714,7 @@
         <v>1163</v>
       </c>
       <c r="E593" s="25">
-        <f>SUM(F593:F593)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F593" s="25"/>
@@ -14728,7 +14728,7 @@
         <v>1165</v>
       </c>
       <c r="E594" s="25">
-        <f>SUM(F594:F594)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F594" s="25"/>
@@ -14742,7 +14742,7 @@
         <v>1167</v>
       </c>
       <c r="E595" s="25">
-        <f>SUM(F595:F595)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F595" s="25"/>
@@ -14756,7 +14756,7 @@
         <v>1169</v>
       </c>
       <c r="E596" s="25">
-        <f>SUM(F596:F596)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F596" s="25"/>
@@ -14770,7 +14770,7 @@
         <v>1171</v>
       </c>
       <c r="E597" s="25">
-        <f>SUM(F597:F597)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F597" s="25"/>
@@ -14784,7 +14784,7 @@
         <v>1173</v>
       </c>
       <c r="E598" s="25">
-        <f>SUM(F598:F598)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F598" s="25"/>
@@ -14798,7 +14798,7 @@
         <v>1175</v>
       </c>
       <c r="E599" s="25">
-        <f>SUM(F599:F599)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F599" s="25"/>
@@ -14812,7 +14812,7 @@
         <v>1177</v>
       </c>
       <c r="E600" s="25">
-        <f>SUM(F600:F600)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F600" s="25"/>
@@ -14826,7 +14826,7 @@
         <v>1179</v>
       </c>
       <c r="E601" s="25">
-        <f>SUM(F601:F601)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F601" s="25">
@@ -14842,7 +14842,7 @@
         <v>1181</v>
       </c>
       <c r="E602" s="25">
-        <f>SUM(F602:F602)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F602" s="25"/>
@@ -14856,7 +14856,7 @@
         <v>1183</v>
       </c>
       <c r="E603" s="25">
-        <f>SUM(F603:F603)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F603" s="25"/>
@@ -14870,7 +14870,7 @@
         <v>1185</v>
       </c>
       <c r="E604" s="25">
-        <f>SUM(F604:F604)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F604" s="25"/>
@@ -14884,7 +14884,7 @@
         <v>1187</v>
       </c>
       <c r="E605" s="25">
-        <f>SUM(F605:F605)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F605" s="25">
@@ -14900,7 +14900,7 @@
         <v>1189</v>
       </c>
       <c r="E606" s="25">
-        <f>SUM(F606:F606)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F606" s="25"/>
@@ -14914,7 +14914,7 @@
         <v>1191</v>
       </c>
       <c r="E607" s="25">
-        <f>SUM(F607:F607)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F607" s="25"/>
@@ -14928,7 +14928,7 @@
         <v>1193</v>
       </c>
       <c r="E608" s="25">
-        <f>SUM(F608:F608)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F608" s="25"/>
@@ -14942,7 +14942,7 @@
         <v>1195</v>
       </c>
       <c r="E609" s="25">
-        <f>SUM(F609:F609)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F609" s="25"/>
@@ -14956,7 +14956,7 @@
         <v>1197</v>
       </c>
       <c r="E610" s="25">
-        <f>SUM(F610:F610)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F610" s="25"/>
@@ -14970,7 +14970,7 @@
         <v>1199</v>
       </c>
       <c r="E611" s="25">
-        <f>SUM(F611:F611)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F611" s="25"/>
@@ -14984,7 +14984,7 @@
         <v>1201</v>
       </c>
       <c r="E612" s="25">
-        <f>SUM(F612:F612)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F612" s="25"/>
@@ -14998,7 +14998,7 @@
         <v>1203</v>
       </c>
       <c r="E613" s="25">
-        <f>SUM(F613:F613)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F613" s="25"/>
@@ -15012,7 +15012,7 @@
         <v>1205</v>
       </c>
       <c r="E614" s="25">
-        <f>SUM(F614:F614)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F614" s="25"/>
@@ -15026,7 +15026,7 @@
         <v>1207</v>
       </c>
       <c r="E615" s="25">
-        <f>SUM(F615:F615)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F615" s="25">
@@ -15042,7 +15042,7 @@
         <v>1209</v>
       </c>
       <c r="E616" s="25">
-        <f>SUM(F616:F616)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F616" s="25">
@@ -15058,7 +15058,7 @@
         <v>1211</v>
       </c>
       <c r="E617" s="25">
-        <f>SUM(F617:F617)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F617" s="25"/>
@@ -15072,7 +15072,7 @@
         <v>1213</v>
       </c>
       <c r="E618" s="25">
-        <f>SUM(F618:F618)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F618" s="25"/>
@@ -15086,7 +15086,7 @@
         <v>1215</v>
       </c>
       <c r="E619" s="25">
-        <f>SUM(F619:F619)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F619" s="25"/>
@@ -15100,7 +15100,7 @@
         <v>1217</v>
       </c>
       <c r="E620" s="25">
-        <f>SUM(F620:F620)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F620" s="25"/>
@@ -15114,7 +15114,7 @@
         <v>1219</v>
       </c>
       <c r="E621" s="25">
-        <f>SUM(F621:F621)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F621" s="25"/>
@@ -15128,7 +15128,7 @@
         <v>1221</v>
       </c>
       <c r="E622" s="25">
-        <f>SUM(F622:F622)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F622" s="25"/>
@@ -15142,7 +15142,7 @@
         <v>1223</v>
       </c>
       <c r="E623" s="25">
-        <f>SUM(F623:F623)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F623" s="25">
@@ -15158,7 +15158,7 @@
         <v>1225</v>
       </c>
       <c r="E624" s="25">
-        <f>SUM(F624:F624)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F624" s="25"/>
@@ -15172,7 +15172,7 @@
         <v>1227</v>
       </c>
       <c r="E625" s="25">
-        <f>SUM(F625:F625)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F625" s="25">
@@ -15188,7 +15188,7 @@
         <v>1229</v>
       </c>
       <c r="E626" s="25">
-        <f>SUM(F626:F626)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F626" s="25"/>
@@ -15202,7 +15202,7 @@
         <v>1231</v>
       </c>
       <c r="E627" s="25">
-        <f>SUM(F627:F627)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F627" s="25"/>
@@ -15216,7 +15216,7 @@
         <v>1233</v>
       </c>
       <c r="E628" s="25">
-        <f>SUM(F628:F628)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F628" s="25"/>
@@ -15230,7 +15230,7 @@
         <v>1235</v>
       </c>
       <c r="E629" s="25">
-        <f>SUM(F629:F629)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F629" s="25"/>
@@ -15244,7 +15244,7 @@
         <v>1237</v>
       </c>
       <c r="E630" s="25">
-        <f>SUM(F630:F630)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F630" s="25">
@@ -15260,7 +15260,7 @@
         <v>1239</v>
       </c>
       <c r="E631" s="25">
-        <f>SUM(F631:F631)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F631" s="25"/>
@@ -15274,7 +15274,7 @@
         <v>1241</v>
       </c>
       <c r="E632" s="25">
-        <f>SUM(F632:F632)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F632" s="25"/>
@@ -15288,7 +15288,7 @@
         <v>1243</v>
       </c>
       <c r="E633" s="25">
-        <f>SUM(F633:F633)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F633" s="25">
@@ -15304,7 +15304,7 @@
         <v>1245</v>
       </c>
       <c r="E634" s="25">
-        <f>SUM(F634:F634)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F634" s="25"/>
@@ -15318,7 +15318,7 @@
         <v>1247</v>
       </c>
       <c r="E635" s="25">
-        <f>SUM(F635:F635)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F635" s="25"/>
@@ -15332,7 +15332,7 @@
         <v>1249</v>
       </c>
       <c r="E636" s="25">
-        <f>SUM(F636:F636)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F636" s="25"/>
@@ -15346,7 +15346,7 @@
         <v>1251</v>
       </c>
       <c r="E637" s="25">
-        <f>SUM(F637:F637)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F637" s="25"/>
@@ -15360,7 +15360,7 @@
         <v>1253</v>
       </c>
       <c r="E638" s="25">
-        <f>SUM(F638:F638)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F638" s="25"/>
@@ -15374,7 +15374,7 @@
         <v>1255</v>
       </c>
       <c r="E639" s="25">
-        <f>SUM(F639:F639)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F639" s="25"/>
@@ -15388,7 +15388,7 @@
         <v>1257</v>
       </c>
       <c r="E640" s="25">
-        <f>SUM(F640:F640)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F640" s="25"/>
@@ -15402,7 +15402,7 @@
         <v>1259</v>
       </c>
       <c r="E641" s="25">
-        <f>SUM(F641:F641)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="F641" s="25">
@@ -15418,7 +15418,7 @@
         <v>1261</v>
       </c>
       <c r="E642" s="25">
-        <f>SUM(F642:F642)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F642" s="25"/>
@@ -15432,7 +15432,7 @@
         <v>1263</v>
       </c>
       <c r="E643" s="25">
-        <f>SUM(F643:F643)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F643" s="25"/>
@@ -15446,7 +15446,7 @@
         <v>1265</v>
       </c>
       <c r="E644" s="25">
-        <f>SUM(F644:F644)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F644" s="25"/>
@@ -15460,7 +15460,7 @@
         <v>1267</v>
       </c>
       <c r="E645" s="25">
-        <f>SUM(F645:F645)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F645" s="25">
@@ -15476,7 +15476,7 @@
         <v>1269</v>
       </c>
       <c r="E646" s="25">
-        <f>SUM(F646:F646)</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F646" s="25">
@@ -15492,7 +15492,7 @@
         <v>1271</v>
       </c>
       <c r="E647" s="25">
-        <f>SUM(F647:F647)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F647" s="25"/>
@@ -15506,7 +15506,7 @@
         <v>1273</v>
       </c>
       <c r="E648" s="25">
-        <f>SUM(F648:F648)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F648" s="25"/>
@@ -15520,7 +15520,7 @@
         <v>1275</v>
       </c>
       <c r="E649" s="25">
-        <f>SUM(F649:F649)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F649" s="25"/>
@@ -15534,7 +15534,7 @@
         <v>1277</v>
       </c>
       <c r="E650" s="25">
-        <f>SUM(F650:F650)</f>
+        <f t="shared" ref="E650:E713" si="10">SUM(F650:F650)</f>
         <v>0</v>
       </c>
       <c r="F650" s="25"/>
@@ -15548,7 +15548,7 @@
         <v>1279</v>
       </c>
       <c r="E651" s="25">
-        <f>SUM(F651:F651)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F651" s="25"/>
@@ -15562,7 +15562,7 @@
         <v>1281</v>
       </c>
       <c r="E652" s="25">
-        <f>SUM(F652:F652)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F652" s="25"/>
@@ -15576,7 +15576,7 @@
         <v>1283</v>
       </c>
       <c r="E653" s="25">
-        <f>SUM(F653:F653)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F653" s="25"/>
@@ -15590,7 +15590,7 @@
         <v>1285</v>
       </c>
       <c r="E654" s="25">
-        <f>SUM(F654:F654)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F654" s="25"/>
@@ -15604,7 +15604,7 @@
         <v>1287</v>
       </c>
       <c r="E655" s="25">
-        <f>SUM(F655:F655)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F655" s="25">
@@ -15620,7 +15620,7 @@
         <v>1289</v>
       </c>
       <c r="E656" s="25">
-        <f>SUM(F656:F656)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F656" s="25"/>
@@ -15634,7 +15634,7 @@
         <v>1291</v>
       </c>
       <c r="E657" s="25">
-        <f>SUM(F657:F657)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F657" s="25"/>
@@ -15648,7 +15648,7 @@
         <v>1293</v>
       </c>
       <c r="E658" s="25">
-        <f>SUM(F658:F658)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F658" s="25"/>
@@ -15662,7 +15662,7 @@
         <v>1295</v>
       </c>
       <c r="E659" s="25">
-        <f>SUM(F659:F659)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F659" s="25">
@@ -15678,7 +15678,7 @@
         <v>1297</v>
       </c>
       <c r="E660" s="25">
-        <f>SUM(F660:F660)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F660" s="25">
@@ -15694,7 +15694,7 @@
         <v>1299</v>
       </c>
       <c r="E661" s="25">
-        <f>SUM(F661:F661)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F661" s="25"/>
@@ -15708,7 +15708,7 @@
         <v>1301</v>
       </c>
       <c r="E662" s="25">
-        <f>SUM(F662:F662)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F662" s="25"/>
@@ -15722,7 +15722,7 @@
         <v>1303</v>
       </c>
       <c r="E663" s="25">
-        <f>SUM(F663:F663)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F663" s="25">
@@ -15738,7 +15738,7 @@
         <v>1305</v>
       </c>
       <c r="E664" s="25">
-        <f>SUM(F664:F664)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F664" s="25"/>
@@ -15752,7 +15752,7 @@
         <v>1307</v>
       </c>
       <c r="E665" s="25">
-        <f>SUM(F665:F665)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F665" s="25"/>
@@ -15766,7 +15766,7 @@
         <v>1309</v>
       </c>
       <c r="E666" s="25">
-        <f>SUM(F666:F666)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F666" s="25">
@@ -15782,7 +15782,7 @@
         <v>1311</v>
       </c>
       <c r="E667" s="25">
-        <f>SUM(F667:F667)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F667" s="25"/>
@@ -15796,7 +15796,7 @@
         <v>1313</v>
       </c>
       <c r="E668" s="25">
-        <f>SUM(F668:F668)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F668" s="25"/>
@@ -15810,7 +15810,7 @@
         <v>1315</v>
       </c>
       <c r="E669" s="25">
-        <f>SUM(F669:F669)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F669" s="25"/>
@@ -15824,7 +15824,7 @@
         <v>1317</v>
       </c>
       <c r="E670" s="25">
-        <f>SUM(F670:F670)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F670" s="25"/>
@@ -15838,7 +15838,7 @@
         <v>1319</v>
       </c>
       <c r="E671" s="25">
-        <f>SUM(F671:F671)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F671" s="25">
@@ -15854,7 +15854,7 @@
         <v>1321</v>
       </c>
       <c r="E672" s="25">
-        <f>SUM(F672:F672)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F672" s="25"/>
@@ -15868,7 +15868,7 @@
         <v>1323</v>
       </c>
       <c r="E673" s="25">
-        <f>SUM(F673:F673)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F673" s="25"/>
@@ -15882,7 +15882,7 @@
         <v>1325</v>
       </c>
       <c r="E674" s="25">
-        <f>SUM(F674:F674)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F674" s="25">
@@ -15898,7 +15898,7 @@
         <v>1327</v>
       </c>
       <c r="E675" s="25">
-        <f>SUM(F675:F675)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F675" s="25"/>
@@ -15912,7 +15912,7 @@
         <v>1329</v>
       </c>
       <c r="E676" s="25">
-        <f>SUM(F676:F676)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F676" s="25"/>
@@ -15926,7 +15926,7 @@
         <v>1331</v>
       </c>
       <c r="E677" s="25">
-        <f>SUM(F677:F677)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F677" s="25"/>
@@ -15940,7 +15940,7 @@
         <v>1333</v>
       </c>
       <c r="E678" s="25">
-        <f>SUM(F678:F678)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F678" s="25"/>
@@ -15954,7 +15954,7 @@
         <v>1335</v>
       </c>
       <c r="E679" s="25">
-        <f>SUM(F679:F679)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F679" s="25"/>
@@ -15968,7 +15968,7 @@
         <v>1337</v>
       </c>
       <c r="E680" s="25">
-        <f>SUM(F680:F680)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F680" s="25"/>
@@ -15982,7 +15982,7 @@
         <v>1339</v>
       </c>
       <c r="E681" s="25">
-        <f>SUM(F681:F681)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F681" s="25"/>
@@ -15996,7 +15996,7 @@
         <v>1341</v>
       </c>
       <c r="E682" s="25">
-        <f>SUM(F682:F682)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F682" s="25">
@@ -16012,7 +16012,7 @@
         <v>1343</v>
       </c>
       <c r="E683" s="25">
-        <f>SUM(F683:F683)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F683" s="25">
@@ -16028,7 +16028,7 @@
         <v>1345</v>
       </c>
       <c r="E684" s="25">
-        <f>SUM(F684:F684)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F684" s="25"/>
@@ -16042,7 +16042,7 @@
         <v>1347</v>
       </c>
       <c r="E685" s="25">
-        <f>SUM(F685:F685)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F685" s="25">
@@ -16058,7 +16058,7 @@
         <v>1349</v>
       </c>
       <c r="E686" s="25">
-        <f>SUM(F686:F686)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F686" s="25"/>
@@ -16072,7 +16072,7 @@
         <v>1351</v>
       </c>
       <c r="E687" s="25">
-        <f>SUM(F687:F687)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F687" s="25"/>
@@ -16086,7 +16086,7 @@
         <v>1353</v>
       </c>
       <c r="E688" s="25">
-        <f>SUM(F688:F688)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F688" s="25"/>
@@ -16100,7 +16100,7 @@
         <v>1355</v>
       </c>
       <c r="E689" s="25">
-        <f>SUM(F689:F689)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F689" s="25">
@@ -16116,7 +16116,7 @@
         <v>1357</v>
       </c>
       <c r="E690" s="25">
-        <f>SUM(F690:F690)</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="F690" s="25">
@@ -16132,7 +16132,7 @@
         <v>1359</v>
       </c>
       <c r="E691" s="25">
-        <f>SUM(F691:F691)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F691" s="25"/>
@@ -16146,7 +16146,7 @@
         <v>1361</v>
       </c>
       <c r="E692" s="25">
-        <f>SUM(F692:F692)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F692" s="25"/>
@@ -16160,7 +16160,7 @@
         <v>1363</v>
       </c>
       <c r="E693" s="25">
-        <f>SUM(F693:F693)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F693" s="25"/>
@@ -16174,7 +16174,7 @@
         <v>1365</v>
       </c>
       <c r="E694" s="25">
-        <f>SUM(F694:F694)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F694" s="25"/>
@@ -16188,7 +16188,7 @@
         <v>1367</v>
       </c>
       <c r="E695" s="25">
-        <f>SUM(F695:F695)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F695" s="25"/>
@@ -16202,7 +16202,7 @@
         <v>1369</v>
       </c>
       <c r="E696" s="25">
-        <f>SUM(F696:F696)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F696" s="25"/>
@@ -16216,7 +16216,7 @@
         <v>1371</v>
       </c>
       <c r="E697" s="25">
-        <f>SUM(F697:F697)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F697" s="25"/>
@@ -16230,7 +16230,7 @@
         <v>1373</v>
       </c>
       <c r="E698" s="25">
-        <f>SUM(F698:F698)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F698" s="25"/>
@@ -16244,7 +16244,7 @@
         <v>1375</v>
       </c>
       <c r="E699" s="25">
-        <f>SUM(F699:F699)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F699" s="25">
@@ -16260,7 +16260,7 @@
         <v>1377</v>
       </c>
       <c r="E700" s="25">
-        <f>SUM(F700:F700)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F700" s="25"/>
@@ -16274,7 +16274,7 @@
         <v>1379</v>
       </c>
       <c r="E701" s="25">
-        <f>SUM(F701:F701)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F701" s="25"/>
@@ -16288,7 +16288,7 @@
         <v>1381</v>
       </c>
       <c r="E702" s="25">
-        <f>SUM(F702:F702)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F702" s="25">
@@ -16304,7 +16304,7 @@
         <v>1383</v>
       </c>
       <c r="E703" s="25">
-        <f>SUM(F703:F703)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F703" s="25"/>
@@ -16318,7 +16318,7 @@
         <v>1385</v>
       </c>
       <c r="E704" s="25">
-        <f>SUM(F704:F704)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F704" s="25"/>
@@ -16332,7 +16332,7 @@
         <v>1387</v>
       </c>
       <c r="E705" s="25">
-        <f>SUM(F705:F705)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F705" s="25"/>
@@ -16346,7 +16346,7 @@
         <v>1389</v>
       </c>
       <c r="E706" s="25">
-        <f>SUM(F706:F706)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F706" s="25"/>
@@ -16360,7 +16360,7 @@
         <v>1391</v>
       </c>
       <c r="E707" s="25">
-        <f>SUM(F707:F707)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F707" s="25"/>
@@ -16374,7 +16374,7 @@
         <v>1393</v>
       </c>
       <c r="E708" s="25">
-        <f>SUM(F708:F708)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F708" s="25"/>
@@ -16388,7 +16388,7 @@
         <v>1395</v>
       </c>
       <c r="E709" s="25">
-        <f>SUM(F709:F709)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F709" s="25"/>
@@ -16402,7 +16402,7 @@
         <v>1397</v>
       </c>
       <c r="E710" s="25">
-        <f>SUM(F710:F710)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F710" s="25">
@@ -16418,7 +16418,7 @@
         <v>1399</v>
       </c>
       <c r="E711" s="25">
-        <f>SUM(F711:F711)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F711" s="25"/>
@@ -16432,7 +16432,7 @@
         <v>1401</v>
       </c>
       <c r="E712" s="25">
-        <f>SUM(F712:F712)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F712" s="25">
@@ -16448,7 +16448,7 @@
         <v>1403</v>
       </c>
       <c r="E713" s="25">
-        <f>SUM(F713:F713)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F713" s="25"/>
@@ -16462,7 +16462,7 @@
         <v>1405</v>
       </c>
       <c r="E714" s="25">
-        <f>SUM(F714:F714)</f>
+        <f t="shared" ref="E714:E777" si="11">SUM(F714:F714)</f>
         <v>0</v>
       </c>
       <c r="F714" s="25"/>
@@ -16476,7 +16476,7 @@
         <v>1407</v>
       </c>
       <c r="E715" s="25">
-        <f>SUM(F715:F715)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F715" s="25"/>
@@ -16490,7 +16490,7 @@
         <v>1409</v>
       </c>
       <c r="E716" s="25">
-        <f>SUM(F716:F716)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F716" s="25">
@@ -16506,7 +16506,7 @@
         <v>1411</v>
       </c>
       <c r="E717" s="25">
-        <f>SUM(F717:F717)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F717" s="25"/>
@@ -16520,7 +16520,7 @@
         <v>1413</v>
       </c>
       <c r="E718" s="25">
-        <f>SUM(F718:F718)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F718" s="25"/>
@@ -16534,7 +16534,7 @@
         <v>1415</v>
       </c>
       <c r="E719" s="25">
-        <f>SUM(F719:F719)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F719" s="25"/>
@@ -16548,7 +16548,7 @@
         <v>1417</v>
       </c>
       <c r="E720" s="25">
-        <f>SUM(F720:F720)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F720" s="25"/>
@@ -16562,7 +16562,7 @@
         <v>1419</v>
       </c>
       <c r="E721" s="25">
-        <f>SUM(F721:F721)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F721" s="25"/>
@@ -16576,7 +16576,7 @@
         <v>1421</v>
       </c>
       <c r="E722" s="25">
-        <f>SUM(F722:F722)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F722" s="25">
@@ -16592,7 +16592,7 @@
         <v>1423</v>
       </c>
       <c r="E723" s="25">
-        <f>SUM(F723:F723)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F723" s="25"/>
@@ -16606,7 +16606,7 @@
         <v>1425</v>
       </c>
       <c r="E724" s="25">
-        <f>SUM(F724:F724)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F724" s="25"/>
@@ -16620,7 +16620,7 @@
         <v>1427</v>
       </c>
       <c r="E725" s="25">
-        <f>SUM(F725:F725)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F725" s="25"/>
@@ -16634,7 +16634,7 @@
         <v>1429</v>
       </c>
       <c r="E726" s="25">
-        <f>SUM(F726:F726)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F726" s="25"/>
@@ -16648,7 +16648,7 @@
         <v>1431</v>
       </c>
       <c r="E727" s="25">
-        <f>SUM(F727:F727)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F727" s="25">
@@ -16664,7 +16664,7 @@
         <v>1433</v>
       </c>
       <c r="E728" s="25">
-        <f>SUM(F728:F728)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F728" s="25"/>
@@ -16678,7 +16678,7 @@
         <v>1435</v>
       </c>
       <c r="E729" s="25">
-        <f>SUM(F729:F729)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F729" s="25"/>
@@ -16692,7 +16692,7 @@
         <v>1437</v>
       </c>
       <c r="E730" s="25">
-        <f>SUM(F730:F730)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F730" s="25"/>
@@ -16706,7 +16706,7 @@
         <v>1439</v>
       </c>
       <c r="E731" s="25">
-        <f>SUM(F731:F731)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F731" s="25">
@@ -16722,7 +16722,7 @@
         <v>1441</v>
       </c>
       <c r="E732" s="25">
-        <f>SUM(F732:F732)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F732" s="25">
@@ -16738,7 +16738,7 @@
         <v>1443</v>
       </c>
       <c r="E733" s="25">
-        <f>SUM(F733:F733)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F733" s="25"/>
@@ -16752,7 +16752,7 @@
         <v>1445</v>
       </c>
       <c r="E734" s="25">
-        <f>SUM(F734:F734)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F734" s="25"/>
@@ -16766,7 +16766,7 @@
         <v>1447</v>
       </c>
       <c r="E735" s="25">
-        <f>SUM(F735:F735)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F735" s="25">
@@ -16782,7 +16782,7 @@
         <v>1449</v>
       </c>
       <c r="E736" s="25">
-        <f>SUM(F736:F736)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F736" s="25">
@@ -16798,7 +16798,7 @@
         <v>1451</v>
       </c>
       <c r="E737" s="25">
-        <f>SUM(F737:F737)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F737" s="25"/>
@@ -16812,7 +16812,7 @@
         <v>1453</v>
       </c>
       <c r="E738" s="25">
-        <f>SUM(F738:F738)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F738" s="25"/>
@@ -16826,7 +16826,7 @@
         <v>1455</v>
       </c>
       <c r="E739" s="25">
-        <f>SUM(F739:F739)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F739" s="25">
@@ -16842,7 +16842,7 @@
         <v>1457</v>
       </c>
       <c r="E740" s="25">
-        <f>SUM(F740:F740)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F740" s="25">
@@ -16858,7 +16858,7 @@
         <v>1459</v>
       </c>
       <c r="E741" s="25">
-        <f>SUM(F741:F741)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F741" s="25"/>
@@ -16872,7 +16872,7 @@
         <v>1461</v>
       </c>
       <c r="E742" s="25">
-        <f>SUM(F742:F742)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F742" s="25">
@@ -16888,7 +16888,7 @@
         <v>1463</v>
       </c>
       <c r="E743" s="25">
-        <f>SUM(F743:F743)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F743" s="25"/>
@@ -16902,7 +16902,7 @@
         <v>1465</v>
       </c>
       <c r="E744" s="25">
-        <f>SUM(F744:F744)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F744" s="25"/>
@@ -16916,7 +16916,7 @@
         <v>1467</v>
       </c>
       <c r="E745" s="25">
-        <f>SUM(F745:F745)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F745" s="25"/>
@@ -16930,7 +16930,7 @@
         <v>1469</v>
       </c>
       <c r="E746" s="25">
-        <f>SUM(F746:F746)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F746" s="25"/>
@@ -16944,7 +16944,7 @@
         <v>1471</v>
       </c>
       <c r="E747" s="25">
-        <f>SUM(F747:F747)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F747" s="25">
@@ -16960,7 +16960,7 @@
         <v>1473</v>
       </c>
       <c r="E748" s="25">
-        <f>SUM(F748:F748)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F748" s="25"/>
@@ -16974,7 +16974,7 @@
         <v>1475</v>
       </c>
       <c r="E749" s="25">
-        <f>SUM(F749:F749)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F749" s="25">
@@ -16990,7 +16990,7 @@
         <v>1477</v>
       </c>
       <c r="E750" s="25">
-        <f>SUM(F750:F750)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F750" s="25"/>
@@ -17004,7 +17004,7 @@
         <v>1479</v>
       </c>
       <c r="E751" s="25">
-        <f>SUM(F751:F751)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F751" s="25"/>
@@ -17018,7 +17018,7 @@
         <v>1481</v>
       </c>
       <c r="E752" s="25">
-        <f>SUM(F752:F752)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F752" s="25"/>
@@ -17032,7 +17032,7 @@
         <v>1483</v>
       </c>
       <c r="E753" s="25">
-        <f>SUM(F753:F753)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F753" s="25">
@@ -17048,7 +17048,7 @@
         <v>1485</v>
       </c>
       <c r="E754" s="25">
-        <f>SUM(F754:F754)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F754" s="25"/>
@@ -17062,7 +17062,7 @@
         <v>1487</v>
       </c>
       <c r="E755" s="25">
-        <f>SUM(F755:F755)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F755" s="25"/>
@@ -17076,7 +17076,7 @@
         <v>1489</v>
       </c>
       <c r="E756" s="25">
-        <f>SUM(F756:F756)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F756" s="25"/>
@@ -17090,7 +17090,7 @@
         <v>1491</v>
       </c>
       <c r="E757" s="25">
-        <f>SUM(F757:F757)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F757" s="25"/>
@@ -17104,7 +17104,7 @@
         <v>1493</v>
       </c>
       <c r="E758" s="25">
-        <f>SUM(F758:F758)</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="F758" s="25">
@@ -17120,7 +17120,7 @@
         <v>1495</v>
       </c>
       <c r="E759" s="25">
-        <f>SUM(F759:F759)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F759" s="25"/>
@@ -17134,7 +17134,7 @@
         <v>1497</v>
       </c>
       <c r="E760" s="25">
-        <f>SUM(F760:F760)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F760" s="25"/>
@@ -17148,7 +17148,7 @@
         <v>1499</v>
       </c>
       <c r="E761" s="25">
-        <f>SUM(F761:F761)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F761" s="25">
@@ -17164,7 +17164,7 @@
         <v>1501</v>
       </c>
       <c r="E762" s="25">
-        <f>SUM(F762:F762)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F762" s="25"/>
@@ -17178,7 +17178,7 @@
         <v>1503</v>
       </c>
       <c r="E763" s="25">
-        <f>SUM(F763:F763)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F763" s="25"/>
@@ -17192,7 +17192,7 @@
         <v>1505</v>
       </c>
       <c r="E764" s="25">
-        <f>SUM(F764:F764)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F764" s="25"/>
@@ -17206,7 +17206,7 @@
         <v>1507</v>
       </c>
       <c r="E765" s="25">
-        <f>SUM(F765:F765)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F765" s="25"/>
@@ -17220,7 +17220,7 @@
         <v>1509</v>
       </c>
       <c r="E766" s="25">
-        <f>SUM(F766:F766)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F766" s="25"/>
@@ -17234,7 +17234,7 @@
         <v>1511</v>
       </c>
       <c r="E767" s="25">
-        <f>SUM(F767:F767)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F767" s="25"/>
@@ -17248,7 +17248,7 @@
         <v>1513</v>
       </c>
       <c r="E768" s="25">
-        <f>SUM(F768:F768)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F768" s="25">
@@ -17264,7 +17264,7 @@
         <v>1515</v>
       </c>
       <c r="E769" s="25">
-        <f>SUM(F769:F769)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F769" s="25"/>
@@ -17278,7 +17278,7 @@
         <v>1517</v>
       </c>
       <c r="E770" s="25">
-        <f>SUM(F770:F770)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F770" s="25">
@@ -17294,7 +17294,7 @@
         <v>1519</v>
       </c>
       <c r="E771" s="25">
-        <f>SUM(F771:F771)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F771" s="25">
@@ -17310,7 +17310,7 @@
         <v>1521</v>
       </c>
       <c r="E772" s="25">
-        <f>SUM(F772:F772)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F772" s="25">
@@ -17326,7 +17326,7 @@
         <v>1523</v>
       </c>
       <c r="E773" s="25">
-        <f>SUM(F773:F773)</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="F773" s="25">
@@ -17342,7 +17342,7 @@
         <v>1525</v>
       </c>
       <c r="E774" s="25">
-        <f>SUM(F774:F774)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F774" s="25"/>
@@ -17356,7 +17356,7 @@
         <v>1527</v>
       </c>
       <c r="E775" s="25">
-        <f>SUM(F775:F775)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F775" s="25"/>
@@ -17370,7 +17370,7 @@
         <v>1529</v>
       </c>
       <c r="E776" s="25">
-        <f>SUM(F776:F776)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F776" s="25"/>
@@ -17384,7 +17384,7 @@
         <v>1531</v>
       </c>
       <c r="E777" s="25">
-        <f>SUM(F777:F777)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F777" s="25"/>
@@ -17398,7 +17398,7 @@
         <v>1533</v>
       </c>
       <c r="E778" s="25">
-        <f>SUM(F778:F778)</f>
+        <f t="shared" ref="E778:E841" si="12">SUM(F778:F778)</f>
         <v>2</v>
       </c>
       <c r="F778" s="25">
@@ -17414,7 +17414,7 @@
         <v>1535</v>
       </c>
       <c r="E779" s="25">
-        <f>SUM(F779:F779)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F779" s="25">
@@ -17430,7 +17430,7 @@
         <v>1537</v>
       </c>
       <c r="E780" s="25">
-        <f>SUM(F780:F780)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F780" s="25"/>
@@ -17444,7 +17444,7 @@
         <v>1539</v>
       </c>
       <c r="E781" s="25">
-        <f>SUM(F781:F781)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F781" s="25"/>
@@ -17458,7 +17458,7 @@
         <v>1541</v>
       </c>
       <c r="E782" s="25">
-        <f>SUM(F782:F782)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F782" s="25"/>
@@ -17472,7 +17472,7 @@
         <v>1543</v>
       </c>
       <c r="E783" s="25">
-        <f>SUM(F783:F783)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F783" s="25"/>
@@ -17486,7 +17486,7 @@
         <v>1545</v>
       </c>
       <c r="E784" s="25">
-        <f>SUM(F784:F784)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F784" s="25"/>
@@ -17500,7 +17500,7 @@
         <v>1547</v>
       </c>
       <c r="E785" s="25">
-        <f>SUM(F785:F785)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F785" s="25">
@@ -17516,7 +17516,7 @@
         <v>1549</v>
       </c>
       <c r="E786" s="25">
-        <f>SUM(F786:F786)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F786" s="25">
@@ -17532,7 +17532,7 @@
         <v>1551</v>
       </c>
       <c r="E787" s="25">
-        <f>SUM(F787:F787)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F787" s="25"/>
@@ -17546,7 +17546,7 @@
         <v>1553</v>
       </c>
       <c r="E788" s="25">
-        <f>SUM(F788:F788)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F788" s="25"/>
@@ -17560,7 +17560,7 @@
         <v>1555</v>
       </c>
       <c r="E789" s="25">
-        <f>SUM(F789:F789)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F789" s="25"/>
@@ -17574,7 +17574,7 @@
         <v>1557</v>
       </c>
       <c r="E790" s="25">
-        <f>SUM(F790:F790)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F790" s="25"/>
@@ -17588,7 +17588,7 @@
         <v>1559</v>
       </c>
       <c r="E791" s="25">
-        <f>SUM(F791:F791)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F791" s="25"/>
@@ -17602,7 +17602,7 @@
         <v>1561</v>
       </c>
       <c r="E792" s="25">
-        <f>SUM(F792:F792)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F792" s="25">
@@ -17618,7 +17618,7 @@
         <v>1563</v>
       </c>
       <c r="E793" s="25">
-        <f>SUM(F793:F793)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F793" s="25">
@@ -17634,7 +17634,7 @@
         <v>1565</v>
       </c>
       <c r="E794" s="25">
-        <f>SUM(F794:F794)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F794" s="25">
@@ -17650,7 +17650,7 @@
         <v>1567</v>
       </c>
       <c r="E795" s="25">
-        <f>SUM(F795:F795)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F795" s="25">
@@ -17666,7 +17666,7 @@
         <v>1569</v>
       </c>
       <c r="E796" s="25">
-        <f>SUM(F796:F796)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F796" s="25"/>
@@ -17680,7 +17680,7 @@
         <v>1571</v>
       </c>
       <c r="E797" s="25">
-        <f>SUM(F797:F797)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F797" s="25">
@@ -17696,7 +17696,7 @@
         <v>1573</v>
       </c>
       <c r="E798" s="25">
-        <f>SUM(F798:F798)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F798" s="25">
@@ -17712,7 +17712,7 @@
         <v>1575</v>
       </c>
       <c r="E799" s="25">
-        <f>SUM(F799:F799)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F799" s="25">
@@ -17728,7 +17728,7 @@
         <v>1577</v>
       </c>
       <c r="E800" s="25">
-        <f>SUM(F800:F800)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F800" s="25">
@@ -17744,7 +17744,7 @@
         <v>1579</v>
       </c>
       <c r="E801" s="25">
-        <f>SUM(F801:F801)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F801" s="25"/>
@@ -17758,7 +17758,7 @@
         <v>1581</v>
       </c>
       <c r="E802" s="25">
-        <f>SUM(F802:F802)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F802" s="25">
@@ -17774,7 +17774,7 @@
         <v>1583</v>
       </c>
       <c r="E803" s="25">
-        <f>SUM(F803:F803)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F803" s="25">
@@ -17790,7 +17790,7 @@
         <v>1585</v>
       </c>
       <c r="E804" s="25">
-        <f>SUM(F804:F804)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F804" s="25">
@@ -17806,7 +17806,7 @@
         <v>1587</v>
       </c>
       <c r="E805" s="25">
-        <f>SUM(F805:F805)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F805" s="25"/>
@@ -17820,7 +17820,7 @@
         <v>1589</v>
       </c>
       <c r="E806" s="25">
-        <f>SUM(F806:F806)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F806" s="25">
@@ -17836,7 +17836,7 @@
         <v>1591</v>
       </c>
       <c r="E807" s="25">
-        <f>SUM(F807:F807)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F807" s="25"/>
@@ -17850,7 +17850,7 @@
         <v>1593</v>
       </c>
       <c r="E808" s="25">
-        <f>SUM(F808:F808)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F808" s="25"/>
@@ -17864,7 +17864,7 @@
         <v>1595</v>
       </c>
       <c r="E809" s="25">
-        <f>SUM(F809:F809)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F809" s="25"/>
@@ -17878,7 +17878,7 @@
         <v>1597</v>
       </c>
       <c r="E810" s="25">
-        <f>SUM(F810:F810)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F810" s="25"/>
@@ -17892,7 +17892,7 @@
         <v>1599</v>
       </c>
       <c r="E811" s="25">
-        <f>SUM(F811:F811)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F811" s="25">
@@ -17908,7 +17908,7 @@
         <v>1601</v>
       </c>
       <c r="E812" s="25">
-        <f>SUM(F812:F812)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F812" s="25"/>
@@ -17922,7 +17922,7 @@
         <v>1603</v>
       </c>
       <c r="E813" s="25">
-        <f>SUM(F813:F813)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F813" s="25"/>
@@ -17936,7 +17936,7 @@
         <v>1605</v>
       </c>
       <c r="E814" s="25">
-        <f>SUM(F814:F814)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F814" s="25"/>
@@ -17950,7 +17950,7 @@
         <v>1607</v>
       </c>
       <c r="E815" s="25">
-        <f>SUM(F815:F815)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F815" s="25">
@@ -17966,7 +17966,7 @@
         <v>1609</v>
       </c>
       <c r="E816" s="25">
-        <f>SUM(F816:F816)</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="F816" s="25">
@@ -17982,7 +17982,7 @@
         <v>1611</v>
       </c>
       <c r="E817" s="25">
-        <f>SUM(F817:F817)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F817" s="25">
@@ -17998,7 +17998,7 @@
         <v>1613</v>
       </c>
       <c r="E818" s="25">
-        <f>SUM(F818:F818)</f>
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
       <c r="F818" s="25">
@@ -18014,7 +18014,7 @@
         <v>1615</v>
       </c>
       <c r="E819" s="25">
-        <f>SUM(F819:F819)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F819" s="25"/>
@@ -18028,7 +18028,7 @@
         <v>1617</v>
       </c>
       <c r="E820" s="25">
-        <f>SUM(F820:F820)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="F820" s="25"/>
@@ -18049,19 +18049,19 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="I5" sqref="I1:I1048576"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="0" style="9" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="36.625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="30.625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="8.625" customWidth="1"/>
-    <col min="6" max="6" width="8.625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
